--- a/assets/forms/final_schedule.xlsx
+++ b/assets/forms/final_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Documents/GitHub/honeybeehealth2021.github.io/assets/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEFD6DD-C76D-6445-AF2B-5089DD1A7691}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9892C594-415C-C048-B802-EFD1553D1C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="4" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="533">
   <si>
     <t>Monday 22 March</t>
   </si>
@@ -1638,6 +1638,9 @@
   </si>
   <si>
     <t>Fri 19:00</t>
+  </si>
+  <si>
+    <t>Alba Luna</t>
   </si>
 </sst>
 </file>
@@ -2208,6 +2211,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2217,6 +2232,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2229,66 +2292,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2379,25 +2382,25 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2746,14 +2749,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -2774,10 +2777,10 @@
       <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="70"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2825,10 +2828,10 @@
       <c r="F5" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2851,8 +2854,8 @@
       <c r="F6" s="10">
         <v>0.46527777777777773</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -2873,10 +2876,10 @@
       <c r="F7" s="10">
         <v>0.47222222222222227</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -2897,8 +2900,8 @@
       <c r="F8" s="10">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="61" t="s">
+      <c r="H8" s="64"/>
+      <c r="I8" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2921,8 +2924,8 @@
       <c r="F9" s="10">
         <v>0.4861111111111111</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="62"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -2943,8 +2946,8 @@
       <c r="F10" s="10">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="63"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -2965,10 +2968,10 @@
       <c r="F11" s="10">
         <v>0.5</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2991,8 +2994,8 @@
       <c r="F12" s="10">
         <v>0.50694444444444442</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -3013,8 +3016,8 @@
       <c r="F13" s="10">
         <v>0.51388888888888895</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -3035,10 +3038,10 @@
       <c r="F14" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="69" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3061,8 +3064,8 @@
       <c r="F15" s="10">
         <v>0.52777777777777779</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
@@ -3083,10 +3086,10 @@
       <c r="F16" s="10">
         <v>0.53472222222222221</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3109,8 +3112,8 @@
       <c r="F17" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -3131,8 +3134,8 @@
       <c r="F18" s="10">
         <v>0.54861111111111105</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -3153,10 +3156,10 @@
       <c r="F19" s="10">
         <v>0.55555555555555558</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="61" t="s">
+      <c r="I19" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3179,8 +3182,8 @@
       <c r="F20" s="10">
         <v>0.5625</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
@@ -3201,8 +3204,8 @@
       <c r="F21" s="10">
         <v>0.56944444444444442</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -3271,10 +3274,10 @@
       <c r="F25" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="54" t="s">
+      <c r="I25" s="58" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3297,8 +3300,8 @@
       <c r="F26" s="10">
         <v>0.65277777777777779</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="55"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -3319,8 +3322,8 @@
       <c r="F27" s="10">
         <v>0.65972222222222221</v>
       </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="55"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -3341,10 +3344,10 @@
       <c r="F28" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="55"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -3365,8 +3368,8 @@
       <c r="F29" s="10">
         <v>0.67361111111111116</v>
       </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="55"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -3387,8 +3390,8 @@
       <c r="F30" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H30" s="63"/>
-      <c r="I30" s="56"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -3409,10 +3412,10 @@
       <c r="F31" s="10">
         <v>0.6875</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="64" t="s">
+      <c r="I31" s="69" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3435,8 +3438,8 @@
       <c r="F32" s="10">
         <v>0.69444444444444453</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="65"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="70"/>
     </row>
     <row r="33" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
@@ -3457,8 +3460,8 @@
       <c r="F33" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="H33" s="63"/>
-      <c r="I33" s="54" t="s">
+      <c r="H33" s="68"/>
+      <c r="I33" s="58" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3481,10 +3484,10 @@
       <c r="F34" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="55"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -3505,8 +3508,8 @@
       <c r="F35" s="10">
         <v>0.71527777777777779</v>
       </c>
-      <c r="H35" s="65"/>
-      <c r="I35" s="55"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
@@ -3527,10 +3530,10 @@
       <c r="F36" s="10">
         <v>0.72222222222222221</v>
       </c>
-      <c r="H36" s="61" t="s">
+      <c r="H36" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="55"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -3551,8 +3554,8 @@
       <c r="F37" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="55"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -3573,8 +3576,8 @@
       <c r="F38" s="10">
         <v>0.73611111111111116</v>
       </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="55"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
@@ -3595,10 +3598,10 @@
       <c r="F39" s="10">
         <v>0.74305555555555547</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="H39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="56"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
@@ -3619,8 +3622,8 @@
       <c r="F40" s="10">
         <v>0.75</v>
       </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="78" t="s">
+      <c r="H40" s="67"/>
+      <c r="I40" s="71" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3643,8 +3646,8 @@
       <c r="F41" s="10">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="79"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="72"/>
     </row>
     <row r="42" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
@@ -3666,7 +3669,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="79"/>
+      <c r="I42" s="72"/>
     </row>
     <row r="43" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
@@ -3688,7 +3691,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="79"/>
+      <c r="I43" s="72"/>
     </row>
     <row r="44" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
@@ -3710,7 +3713,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="79"/>
+      <c r="I44" s="72"/>
     </row>
     <row r="45" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
@@ -3732,7 +3735,7 @@
         <v>0.8125</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="80"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
@@ -3753,14 +3756,14 @@
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
     </row>
     <row r="49" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -3781,11 +3784,11 @@
       <c r="F49" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="57" t="s">
+      <c r="H49" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="58"/>
-      <c r="J49" s="59"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="79"/>
     </row>
     <row r="50" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -3848,13 +3851,13 @@
       <c r="F52" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="54" t="s">
+      <c r="I52" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="54" t="s">
+      <c r="J52" s="58" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3877,9 +3880,9 @@
       <c r="F53" s="10">
         <v>0.86111111111111116</v>
       </c>
-      <c r="H53" s="72"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
@@ -3900,11 +3903,11 @@
       <c r="F54" s="10">
         <v>0.86805555555555547</v>
       </c>
-      <c r="H54" s="54" t="s">
+      <c r="H54" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
@@ -3927,11 +3930,11 @@
       <c r="F55" s="10">
         <v>0.875</v>
       </c>
-      <c r="H55" s="55"/>
-      <c r="I55" s="54" t="s">
+      <c r="H55" s="59"/>
+      <c r="I55" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="54" t="s">
+      <c r="J55" s="58" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3954,9 +3957,9 @@
       <c r="F56" s="10">
         <v>0.88194444444444453</v>
       </c>
-      <c r="H56" s="56"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
     </row>
     <row r="57" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
@@ -3977,11 +3980,11 @@
       <c r="F57" s="10">
         <v>0.88888888888888884</v>
       </c>
-      <c r="H57" s="54" t="s">
+      <c r="H57" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
     </row>
     <row r="58" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
@@ -4002,11 +4005,11 @@
       <c r="F58" s="10">
         <v>0.89583333333333337</v>
       </c>
-      <c r="H58" s="55"/>
-      <c r="I58" s="54" t="s">
+      <c r="H58" s="59"/>
+      <c r="I58" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J58" s="54" t="s">
+      <c r="J58" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4029,9 +4032,9 @@
       <c r="F59" s="10">
         <v>0.90277777777777779</v>
       </c>
-      <c r="H59" s="56"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
     </row>
     <row r="60" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
@@ -4052,11 +4055,11 @@
       <c r="F60" s="10">
         <v>0.90972222222222221</v>
       </c>
-      <c r="H60" s="64" t="s">
+      <c r="H60" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
       <c r="K60" s="6"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4081,11 +4084,11 @@
       <c r="F61" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="H61" s="65"/>
-      <c r="I61" s="64" t="s">
+      <c r="H61" s="70"/>
+      <c r="I61" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="64" t="s">
+      <c r="J61" s="69" t="s">
         <v>25</v>
       </c>
       <c r="K61" s="6"/>
@@ -4112,11 +4115,11 @@
       <c r="F62" s="10">
         <v>0.92361111111111116</v>
       </c>
-      <c r="H62" s="54" t="s">
+      <c r="H62" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4140,11 +4143,11 @@
       <c r="F63" s="10">
         <v>0.93055555555555547</v>
       </c>
-      <c r="H63" s="55"/>
-      <c r="I63" s="54" t="s">
+      <c r="H63" s="59"/>
+      <c r="I63" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="54" t="s">
+      <c r="J63" s="58" t="s">
         <v>24</v>
       </c>
       <c r="K63" s="6"/>
@@ -4170,9 +4173,9 @@
       <c r="F64" s="10">
         <v>0.9375</v>
       </c>
-      <c r="H64" s="56"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
       <c r="K64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4196,11 +4199,11 @@
       <c r="F65" s="10">
         <v>0.94444444444444453</v>
       </c>
-      <c r="H65" s="54" t="s">
+      <c r="H65" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
       <c r="K65" s="6"/>
       <c r="L65" s="1"/>
       <c r="M65" s="6"/>
@@ -4225,11 +4228,11 @@
       <c r="F66" s="10">
         <v>0.95138888888888884</v>
       </c>
-      <c r="H66" s="55"/>
-      <c r="I66" s="54" t="s">
+      <c r="H66" s="59"/>
+      <c r="I66" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="66" t="s">
+      <c r="J66" s="74" t="s">
         <v>42</v>
       </c>
       <c r="K66" s="6"/>
@@ -4256,9 +4259,9 @@
       <c r="F67" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="H67" s="56"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="67"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="75"/>
       <c r="K67" s="6"/>
       <c r="L67" s="3"/>
       <c r="M67" s="6"/>
@@ -4283,11 +4286,11 @@
       <c r="F68" s="10">
         <v>0.96527777777777779</v>
       </c>
-      <c r="H68" s="64" t="s">
+      <c r="H68" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="67"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="75"/>
       <c r="K68" s="6"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -4312,11 +4315,11 @@
       <c r="F69" s="10">
         <v>0.97222222222222221</v>
       </c>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66" t="s">
+      <c r="H69" s="70"/>
+      <c r="I69" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="J69" s="68"/>
+      <c r="J69" s="76"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -4341,10 +4344,10 @@
       <c r="F70" s="10">
         <v>0.97916666666666663</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H70" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="67"/>
+      <c r="I70" s="75"/>
       <c r="J70" s="11" t="s">
         <v>32</v>
       </c>
@@ -4372,8 +4375,8 @@
       <c r="F71" s="10">
         <v>0.98611111111111116</v>
       </c>
-      <c r="H71" s="55"/>
-      <c r="I71" s="67"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="75"/>
       <c r="J71" s="12"/>
       <c r="K71" s="6"/>
       <c r="L71" s="3"/>
@@ -4399,8 +4402,8 @@
       <c r="F72" s="10">
         <v>0.99305555555555547</v>
       </c>
-      <c r="H72" s="56"/>
-      <c r="I72" s="68"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="76"/>
       <c r="J72" s="12"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -4527,21 +4530,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I39"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="H62:H64"/>
     <mergeCell ref="H65:H67"/>
@@ -4558,22 +4562,21 @@
     <mergeCell ref="I69:I72"/>
     <mergeCell ref="J63:J65"/>
     <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="I40:I45"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4738,7 +4741,7 @@
       <c r="J4" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="56" t="s">
         <v>149</v>
       </c>
       <c r="L4" s="83" t="s">
@@ -4775,7 +4778,7 @@
       <c r="J5" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -7155,8 +7158,8 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N51" sqref="A1:N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8093,7 +8096,7 @@
         <v>361</v>
       </c>
       <c r="K31" s="81" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="L31" s="95" t="s">
         <v>381</v>
@@ -8697,17 +8700,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K25:K26"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="M4:M50"/>
     <mergeCell ref="K46:K47"/>
@@ -8724,6 +8716,17 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K25:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8785,7 +8788,7 @@
       <c r="J1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="111" t="s">
         <v>387</v>
       </c>
       <c r="L1" s="34"/>
@@ -8821,7 +8824,7 @@
       <c r="J2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="114"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8855,7 +8858,7 @@
       <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="115"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
@@ -8888,7 +8891,7 @@
       <c r="J4" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="K4" s="116" t="s">
+      <c r="K4" s="114" t="s">
         <v>365</v>
       </c>
       <c r="L4" s="83" t="s">
@@ -8925,7 +8928,7 @@
       <c r="J5" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="K5" s="117"/>
+      <c r="K5" s="115"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -9554,7 +9557,7 @@
       <c r="J28" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="K28" s="111" t="s">
+      <c r="K28" s="116" t="s">
         <v>384</v>
       </c>
       <c r="L28" s="83" t="s">
@@ -9591,7 +9594,7 @@
       <c r="J29" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="K29" s="112"/>
+      <c r="K29" s="117"/>
       <c r="L29" s="84"/>
       <c r="M29" s="34"/>
     </row>
@@ -9639,7 +9642,7 @@
       <c r="J31" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="K31" s="111" t="s">
+      <c r="K31" s="116" t="s">
         <v>385</v>
       </c>
       <c r="L31" s="84"/>
@@ -9674,7 +9677,7 @@
       <c r="J32" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="K32" s="112"/>
+      <c r="K32" s="117"/>
       <c r="L32" s="84"/>
       <c r="M32" s="34"/>
     </row>
@@ -9722,7 +9725,7 @@
       <c r="J34" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="K34" s="111" t="s">
+      <c r="K34" s="116" t="s">
         <v>146</v>
       </c>
       <c r="L34" s="84"/>
@@ -9757,7 +9760,7 @@
       <c r="J35" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="K35" s="112"/>
+      <c r="K35" s="117"/>
       <c r="L35" s="84"/>
       <c r="M35" s="34"/>
     </row>
@@ -9888,7 +9891,7 @@
       <c r="J40" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="K40" s="111" t="s">
+      <c r="K40" s="116" t="s">
         <v>462</v>
       </c>
       <c r="L40" s="84"/>
@@ -9923,7 +9926,7 @@
       <c r="J41" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="K41" s="112"/>
+      <c r="K41" s="117"/>
       <c r="L41" s="84"/>
       <c r="M41" s="34"/>
     </row>
@@ -9971,7 +9974,7 @@
       <c r="J43" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="K43" s="111" t="s">
+      <c r="K43" s="116" t="s">
         <v>370</v>
       </c>
       <c r="L43" s="84"/>
@@ -10006,7 +10009,7 @@
       <c r="J44" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="K44" s="112"/>
+      <c r="K44" s="117"/>
       <c r="L44" s="84"/>
       <c r="M44" s="34"/>
     </row>
@@ -10054,7 +10057,7 @@
       <c r="J46" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="K46" s="111" t="s">
+      <c r="K46" s="116" t="s">
         <v>463</v>
       </c>
       <c r="L46" s="84"/>
@@ -10089,7 +10092,7 @@
       <c r="J47" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="K47" s="112"/>
+      <c r="K47" s="117"/>
       <c r="L47" s="84"/>
       <c r="M47" s="34"/>
     </row>
@@ -10208,11 +10211,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K13:K14"/>
     <mergeCell ref="K49:K50"/>
     <mergeCell ref="L28:L50"/>
     <mergeCell ref="L4:L26"/>
@@ -10227,6 +10225,11 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/assets/forms/final_schedule.xlsx
+++ b/assets/forms/final_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Documents/GitHub/honeybeehealth2021.github.io/assets/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9892C594-415C-C048-B802-EFD1553D1C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B2DCF0-E1B1-7A49-B72E-3D1299E3FC7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="4" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="3" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -719,9 +719,6 @@
     <t>Philipp Engel</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Tue 02:30</t>
   </si>
   <si>
@@ -1641,6 +1638,9 @@
   </si>
   <si>
     <t>Alba Luna</t>
+  </si>
+  <si>
+    <t>Panuwan Chantawannakul</t>
   </si>
 </sst>
 </file>
@@ -2211,6 +2211,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2223,15 +2268,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2247,21 +2283,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2271,27 +2292,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2382,6 +2382,12 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2395,12 +2401,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2749,14 +2749,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -2777,10 +2777,10 @@
       <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="55"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2828,10 +2828,10 @@
       <c r="F5" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2854,8 +2854,8 @@
       <c r="F6" s="10">
         <v>0.46527777777777773</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -2876,10 +2876,10 @@
       <c r="F7" s="10">
         <v>0.47222222222222227</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="63"/>
     </row>
     <row r="8" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -2900,8 +2900,8 @@
       <c r="F8" s="10">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="66" t="s">
+      <c r="H8" s="76"/>
+      <c r="I8" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2924,8 +2924,8 @@
       <c r="F9" s="10">
         <v>0.4861111111111111</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="67"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -2946,8 +2946,8 @@
       <c r="F10" s="10">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="68"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="63"/>
     </row>
     <row r="11" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -2968,10 +2968,10 @@
       <c r="F11" s="10">
         <v>0.5</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2994,8 +2994,8 @@
       <c r="F12" s="10">
         <v>0.50694444444444442</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -3016,8 +3016,8 @@
       <c r="F13" s="10">
         <v>0.51388888888888895</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
     </row>
     <row r="14" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -3038,10 +3038,10 @@
       <c r="F14" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="64" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3064,8 +3064,8 @@
       <c r="F15" s="10">
         <v>0.52777777777777779</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
@@ -3086,10 +3086,10 @@
       <c r="F16" s="10">
         <v>0.53472222222222221</v>
       </c>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3112,8 +3112,8 @@
       <c r="F17" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -3134,8 +3134,8 @@
       <c r="F18" s="10">
         <v>0.54861111111111105</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -3156,10 +3156,10 @@
       <c r="F19" s="10">
         <v>0.55555555555555558</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3182,8 +3182,8 @@
       <c r="F20" s="10">
         <v>0.5625</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
@@ -3204,8 +3204,8 @@
       <c r="F21" s="10">
         <v>0.56944444444444442</v>
       </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
     </row>
     <row r="22" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -3274,10 +3274,10 @@
       <c r="F25" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="58" t="s">
+      <c r="I25" s="54" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3300,8 +3300,8 @@
       <c r="F26" s="10">
         <v>0.65277777777777779</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="59"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -3322,8 +3322,8 @@
       <c r="F27" s="10">
         <v>0.65972222222222221</v>
       </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="59"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -3344,10 +3344,10 @@
       <c r="F28" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="59"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -3368,8 +3368,8 @@
       <c r="F29" s="10">
         <v>0.67361111111111116</v>
       </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="59"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -3390,8 +3390,8 @@
       <c r="F30" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="60"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -3412,10 +3412,10 @@
       <c r="F31" s="10">
         <v>0.6875</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="69" t="s">
+      <c r="I31" s="64" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3438,8 +3438,8 @@
       <c r="F32" s="10">
         <v>0.69444444444444453</v>
       </c>
-      <c r="H32" s="67"/>
-      <c r="I32" s="70"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
@@ -3460,8 +3460,8 @@
       <c r="F33" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="58" t="s">
+      <c r="H33" s="63"/>
+      <c r="I33" s="54" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3484,10 +3484,10 @@
       <c r="F34" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="59"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -3508,8 +3508,8 @@
       <c r="F35" s="10">
         <v>0.71527777777777779</v>
       </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="59"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="55"/>
     </row>
     <row r="36" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
@@ -3530,10 +3530,10 @@
       <c r="F36" s="10">
         <v>0.72222222222222221</v>
       </c>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="59"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -3554,8 +3554,8 @@
       <c r="F37" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H37" s="67"/>
-      <c r="I37" s="59"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -3576,8 +3576,8 @@
       <c r="F38" s="10">
         <v>0.73611111111111116</v>
       </c>
-      <c r="H38" s="68"/>
-      <c r="I38" s="59"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
@@ -3598,10 +3598,10 @@
       <c r="F39" s="10">
         <v>0.74305555555555547</v>
       </c>
-      <c r="H39" s="66" t="s">
+      <c r="H39" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="60"/>
+      <c r="I39" s="56"/>
     </row>
     <row r="40" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
@@ -3622,8 +3622,8 @@
       <c r="F40" s="10">
         <v>0.75</v>
       </c>
-      <c r="H40" s="67"/>
-      <c r="I40" s="71" t="s">
+      <c r="H40" s="62"/>
+      <c r="I40" s="78" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3646,8 +3646,8 @@
       <c r="F41" s="10">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H41" s="68"/>
-      <c r="I41" s="72"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="79"/>
     </row>
     <row r="42" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
@@ -3669,7 +3669,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="72"/>
+      <c r="I42" s="79"/>
     </row>
     <row r="43" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
@@ -3691,7 +3691,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="72"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
@@ -3713,7 +3713,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="72"/>
+      <c r="I44" s="79"/>
     </row>
     <row r="45" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
@@ -3735,7 +3735,7 @@
         <v>0.8125</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="73"/>
+      <c r="I45" s="80"/>
     </row>
     <row r="46" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
@@ -3756,14 +3756,14 @@
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -3784,11 +3784,11 @@
       <c r="F49" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="77" t="s">
+      <c r="H49" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="78"/>
-      <c r="J49" s="79"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="59"/>
     </row>
     <row r="50" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -3851,13 +3851,13 @@
       <c r="F52" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H52" s="56" t="s">
+      <c r="H52" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="58" t="s">
+      <c r="I52" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="58" t="s">
+      <c r="J52" s="54" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3880,9 +3880,9 @@
       <c r="F53" s="10">
         <v>0.86111111111111116</v>
       </c>
-      <c r="H53" s="57"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
     </row>
     <row r="54" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
@@ -3903,11 +3903,11 @@
       <c r="F54" s="10">
         <v>0.86805555555555547</v>
       </c>
-      <c r="H54" s="58" t="s">
+      <c r="H54" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
@@ -3930,11 +3930,11 @@
       <c r="F55" s="10">
         <v>0.875</v>
       </c>
-      <c r="H55" s="59"/>
-      <c r="I55" s="58" t="s">
+      <c r="H55" s="55"/>
+      <c r="I55" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="58" t="s">
+      <c r="J55" s="54" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3957,9 +3957,9 @@
       <c r="F56" s="10">
         <v>0.88194444444444453</v>
       </c>
-      <c r="H56" s="60"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
     </row>
     <row r="57" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
@@ -3980,11 +3980,11 @@
       <c r="F57" s="10">
         <v>0.88888888888888884</v>
       </c>
-      <c r="H57" s="58" t="s">
+      <c r="H57" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
     </row>
     <row r="58" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
@@ -4005,11 +4005,11 @@
       <c r="F58" s="10">
         <v>0.89583333333333337</v>
       </c>
-      <c r="H58" s="59"/>
-      <c r="I58" s="58" t="s">
+      <c r="H58" s="55"/>
+      <c r="I58" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J58" s="58" t="s">
+      <c r="J58" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4032,9 +4032,9 @@
       <c r="F59" s="10">
         <v>0.90277777777777779</v>
       </c>
-      <c r="H59" s="60"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
     </row>
     <row r="60" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
@@ -4055,11 +4055,11 @@
       <c r="F60" s="10">
         <v>0.90972222222222221</v>
       </c>
-      <c r="H60" s="69" t="s">
+      <c r="H60" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
       <c r="K60" s="6"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4084,11 +4084,11 @@
       <c r="F61" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="H61" s="70"/>
-      <c r="I61" s="69" t="s">
+      <c r="H61" s="65"/>
+      <c r="I61" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="69" t="s">
+      <c r="J61" s="64" t="s">
         <v>25</v>
       </c>
       <c r="K61" s="6"/>
@@ -4115,11 +4115,11 @@
       <c r="F62" s="10">
         <v>0.92361111111111116</v>
       </c>
-      <c r="H62" s="58" t="s">
+      <c r="H62" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4143,11 +4143,11 @@
       <c r="F63" s="10">
         <v>0.93055555555555547</v>
       </c>
-      <c r="H63" s="59"/>
-      <c r="I63" s="58" t="s">
+      <c r="H63" s="55"/>
+      <c r="I63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="58" t="s">
+      <c r="J63" s="54" t="s">
         <v>24</v>
       </c>
       <c r="K63" s="6"/>
@@ -4173,9 +4173,9 @@
       <c r="F64" s="10">
         <v>0.9375</v>
       </c>
-      <c r="H64" s="60"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4199,11 +4199,11 @@
       <c r="F65" s="10">
         <v>0.94444444444444453</v>
       </c>
-      <c r="H65" s="58" t="s">
+      <c r="H65" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="6"/>
       <c r="L65" s="1"/>
       <c r="M65" s="6"/>
@@ -4228,11 +4228,11 @@
       <c r="F66" s="10">
         <v>0.95138888888888884</v>
       </c>
-      <c r="H66" s="59"/>
-      <c r="I66" s="58" t="s">
+      <c r="H66" s="55"/>
+      <c r="I66" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="74" t="s">
+      <c r="J66" s="66" t="s">
         <v>42</v>
       </c>
       <c r="K66" s="6"/>
@@ -4259,9 +4259,9 @@
       <c r="F67" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="H67" s="60"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="75"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="67"/>
       <c r="K67" s="6"/>
       <c r="L67" s="3"/>
       <c r="M67" s="6"/>
@@ -4286,11 +4286,11 @@
       <c r="F68" s="10">
         <v>0.96527777777777779</v>
       </c>
-      <c r="H68" s="69" t="s">
+      <c r="H68" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="60"/>
-      <c r="J68" s="75"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="67"/>
       <c r="K68" s="6"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -4315,11 +4315,11 @@
       <c r="F69" s="10">
         <v>0.97222222222222221</v>
       </c>
-      <c r="H69" s="70"/>
-      <c r="I69" s="74" t="s">
+      <c r="H69" s="65"/>
+      <c r="I69" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="J69" s="76"/>
+      <c r="J69" s="68"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -4344,10 +4344,10 @@
       <c r="F70" s="10">
         <v>0.97916666666666663</v>
       </c>
-      <c r="H70" s="58" t="s">
+      <c r="H70" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="75"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="11" t="s">
         <v>32</v>
       </c>
@@ -4375,8 +4375,8 @@
       <c r="F71" s="10">
         <v>0.98611111111111116</v>
       </c>
-      <c r="H71" s="59"/>
-      <c r="I71" s="75"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="67"/>
       <c r="J71" s="12"/>
       <c r="K71" s="6"/>
       <c r="L71" s="3"/>
@@ -4402,8 +4402,8 @@
       <c r="F72" s="10">
         <v>0.99305555555555547</v>
       </c>
-      <c r="H72" s="60"/>
-      <c r="I72" s="76"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="68"/>
       <c r="J72" s="12"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -4530,6 +4530,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J61:J62"/>
     <mergeCell ref="J58:J60"/>
     <mergeCell ref="H70:H72"/>
     <mergeCell ref="I52:I54"/>
@@ -4546,37 +4577,6 @@
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I33:I39"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="I69:I72"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="I40:I45"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4741,11 +4741,11 @@
       <c r="J4" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="71" t="s">
         <v>149</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -4778,7 +4778,7 @@
       <c r="J5" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="57"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -5572,13 +5572,13 @@
     <row r="4" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="27" t="s">
         <v>227</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>228</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>163</v>
@@ -5590,7 +5590,7 @@
         <v>170</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>167</v>
@@ -5602,7 +5602,7 @@
         <v>154</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -6304,7 +6304,7 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M29" sqref="A1:M29"/>
     </sheetView>
   </sheetViews>
@@ -6351,7 +6351,7 @@
         <v>61</v>
       </c>
       <c r="K1" s="86" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
@@ -6429,68 +6429,68 @@
     <row r="4" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="G4" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>237</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>238</v>
       </c>
       <c r="K4" s="99" t="s">
         <v>222</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="J5" s="27" t="s">
         <v>246</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>247</v>
       </c>
       <c r="K5" s="100"/>
       <c r="L5" s="84"/>
@@ -6513,31 +6513,31 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="D7" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="27" t="s">
         <v>246</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>247</v>
       </c>
       <c r="K7" s="99" t="s">
         <v>223</v>
@@ -6548,31 +6548,31 @@
     <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="D8" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="F8" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="I8" s="32" t="s">
+      <c r="J8" s="27" t="s">
         <v>253</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>254</v>
       </c>
       <c r="K8" s="100"/>
       <c r="L8" s="84"/>
@@ -6595,31 +6595,31 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" s="32" t="s">
+      <c r="J10" s="27" t="s">
         <v>253</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>254</v>
       </c>
       <c r="K10" s="99" t="s">
         <v>224</v>
@@ -6630,31 +6630,31 @@
     <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="D11" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="F11" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I11" s="32" t="s">
+      <c r="J11" s="27" t="s">
         <v>259</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>260</v>
       </c>
       <c r="K11" s="100"/>
       <c r="L11" s="84"/>
@@ -6678,31 +6678,31 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="D13" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="27" t="s">
+      <c r="F13" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="H13" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I13" s="32" t="s">
+      <c r="J13" s="27" t="s">
         <v>259</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>260</v>
       </c>
       <c r="K13" s="101" t="s">
         <v>25</v>
@@ -6713,31 +6713,31 @@
     <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="E14" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="F14" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="G14" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="H14" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="I14" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="J14" s="27" t="s">
         <v>268</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>269</v>
       </c>
       <c r="K14" s="102"/>
       <c r="L14" s="84"/>
@@ -6760,34 +6760,34 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="F16" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="I16" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="J16" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>269</v>
-      </c>
       <c r="K16" s="99" t="s">
-        <v>225</v>
+        <v>532</v>
       </c>
       <c r="L16" s="84"/>
       <c r="M16" s="34"/>
@@ -6795,31 +6795,31 @@
     <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="D17" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="E17" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="F17" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="G17" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="H17" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="I17" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="J17" s="27" t="s">
         <v>277</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>278</v>
       </c>
       <c r="K17" s="100"/>
       <c r="L17" s="84"/>
@@ -6842,31 +6842,31 @@
     <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="E19" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="F19" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="G19" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="H19" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="I19" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="J19" s="35" t="s">
         <v>277</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>278</v>
       </c>
       <c r="K19" s="97" t="s">
         <v>41</v>
@@ -6877,31 +6877,31 @@
     <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="E20" s="27" t="s">
+      <c r="F20" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="G20" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="H20" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="I20" s="32" t="s">
+      <c r="J20" s="27" t="s">
         <v>284</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>285</v>
       </c>
       <c r="K20" s="98"/>
       <c r="L20" s="84"/>
@@ -6924,31 +6924,31 @@
     <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E22" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="G22" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="H22" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="I22" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="I22" s="32" t="s">
+      <c r="J22" s="27" t="s">
         <v>284</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>285</v>
       </c>
       <c r="K22" s="95" t="s">
         <v>156</v>
@@ -6959,31 +6959,31 @@
     <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="D23" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="E23" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="F23" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="G23" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="H23" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="I23" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="J23" s="27" t="s">
         <v>294</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>295</v>
       </c>
       <c r="K23" s="96"/>
       <c r="L23" s="84"/>
@@ -7006,31 +7006,31 @@
     <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="D25" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="E25" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="F25" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="G25" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="H25" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="I25" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="J25" s="27" t="s">
         <v>294</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>295</v>
       </c>
       <c r="K25" s="34"/>
       <c r="L25" s="84"/>
@@ -7039,31 +7039,31 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F26" s="27" t="s">
+      <c r="G26" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J26" s="27" t="s">
         <v>297</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>298</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="84"/>
@@ -7086,31 +7086,31 @@
     <row r="28" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C28" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="27" t="s">
+      <c r="G28" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" s="27" t="s">
         <v>297</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>298</v>
       </c>
       <c r="K28" s="52" t="s">
         <v>32</v>
@@ -7158,7 +7158,7 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="N51" sqref="A1:N51"/>
     </sheetView>
   </sheetViews>
@@ -7207,7 +7207,7 @@
         <v>61</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L1" s="104"/>
       <c r="M1" s="34"/>
@@ -7288,69 +7288,69 @@
     <row r="4" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="G4" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>304</v>
-      </c>
       <c r="J4" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K4" s="109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="83" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>310</v>
-      </c>
       <c r="J5" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K5" s="110"/>
       <c r="L5" s="37"/>
@@ -7376,34 +7376,34 @@
     <row r="7" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>310</v>
-      </c>
       <c r="J7" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K7" s="109" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="84"/>
@@ -7412,31 +7412,31 @@
     <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="F8" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>316</v>
-      </c>
       <c r="J8" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K8" s="110"/>
       <c r="L8" s="37"/>
@@ -7462,34 +7462,34 @@
     <row r="10" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>316</v>
-      </c>
       <c r="J10" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K10" s="81" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L10" s="37"/>
       <c r="M10" s="84"/>
@@ -7499,31 +7499,31 @@
     <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="F11" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="G11" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>322</v>
-      </c>
       <c r="J11" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K11" s="82"/>
       <c r="L11" s="37"/>
@@ -7549,34 +7549,34 @@
     <row r="13" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="F13" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="G13" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="H13" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>322</v>
-      </c>
       <c r="J13" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K13" s="81" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="84"/>
@@ -7585,31 +7585,31 @@
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="F14" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" s="27" t="s">
+      <c r="H14" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="I14" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>327</v>
-      </c>
       <c r="J14" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K14" s="82"/>
       <c r="L14" s="37"/>
@@ -7635,34 +7635,34 @@
     <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D16" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="F16" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="I16" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>327</v>
-      </c>
       <c r="J16" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K16" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="84"/>
@@ -7671,31 +7671,31 @@
     <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E17" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="27" t="s">
+      <c r="H17" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="I17" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>330</v>
-      </c>
       <c r="J17" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K17" s="82"/>
       <c r="L17" s="37"/>
@@ -7721,34 +7721,34 @@
     <row r="19" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E19" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="F19" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="G19" s="27" t="s">
+      <c r="H19" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>330</v>
-      </c>
       <c r="J19" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K19" s="81" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="84"/>
@@ -7757,31 +7757,31 @@
     <row r="20" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E20" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="G20" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="H20" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="I20" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>334</v>
-      </c>
       <c r="J20" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K20" s="82"/>
       <c r="L20" s="37"/>
@@ -7807,34 +7807,34 @@
     <row r="22" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E22" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="G22" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="H22" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>334</v>
-      </c>
       <c r="J22" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K22" s="81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="84"/>
@@ -7843,31 +7843,31 @@
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E23" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="G23" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>337</v>
-      </c>
       <c r="J23" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K23" s="82"/>
       <c r="L23" s="37"/>
@@ -7893,37 +7893,37 @@
     <row r="25" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="H25" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="H25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>340</v>
-      </c>
       <c r="J25" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K25" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L25" s="95" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M25" s="84"/>
       <c r="N25" s="34"/>
@@ -7931,31 +7931,31 @@
     <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="E26" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="F26" s="27" t="s">
+      <c r="G26" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="H26" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="H26" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>344</v>
-      </c>
       <c r="J26" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K26" s="82"/>
       <c r="L26" s="96"/>
@@ -7981,37 +7981,37 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D28" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="F28" s="27" t="s">
+      <c r="G28" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="G28" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="I28" s="26" t="s">
-        <v>344</v>
-      </c>
       <c r="J28" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K28" s="81" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L28" s="95" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M28" s="84"/>
       <c r="N28" s="34"/>
@@ -8019,31 +8019,31 @@
     <row r="29" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D29" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="H29" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="H29" s="27" t="s">
+      <c r="I29" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="I29" s="26" t="s">
-        <v>347</v>
-      </c>
       <c r="J29" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="96"/>
@@ -8069,37 +8069,37 @@
     <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D31" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="H31" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="H31" s="27" t="s">
+      <c r="I31" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>347</v>
-      </c>
       <c r="J31" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K31" s="81" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L31" s="95" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M31" s="84"/>
       <c r="N31" s="34"/>
@@ -8107,31 +8107,31 @@
     <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E32" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="F32" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>330</v>
-      </c>
       <c r="H32" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K32" s="82"/>
       <c r="L32" s="96"/>
@@ -8157,37 +8157,37 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E34" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="F34" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>330</v>
-      </c>
       <c r="H34" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K34" s="81" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L34" s="95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M34" s="84"/>
       <c r="N34" s="34"/>
@@ -8195,31 +8195,31 @@
     <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E35" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="H35" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>350</v>
-      </c>
       <c r="J35" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K35" s="82"/>
       <c r="L35" s="96"/>
@@ -8245,31 +8245,31 @@
     <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E37" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="G37" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="H37" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="I37" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>350</v>
-      </c>
       <c r="J37" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K37" s="91" t="s">
         <v>25</v>
@@ -8283,31 +8283,31 @@
     <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F38" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="I38" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="G38" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>352</v>
-      </c>
       <c r="J38" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K38" s="92"/>
       <c r="L38" s="102"/>
@@ -8333,37 +8333,37 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F40" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="I40" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>352</v>
-      </c>
       <c r="J40" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K40" s="81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L40" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M40" s="84"/>
       <c r="N40" s="34"/>
@@ -8371,31 +8371,31 @@
     <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F41" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="H41" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="I41" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="H41" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>355</v>
-      </c>
       <c r="J41" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K41" s="82"/>
       <c r="L41" s="96"/>
@@ -8421,37 +8421,37 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F43" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="H43" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="I43" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="H43" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>355</v>
-      </c>
       <c r="J43" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K43" s="81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L43" s="95" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M43" s="84"/>
       <c r="N43" s="34"/>
@@ -8459,31 +8459,31 @@
     <row r="44" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F44" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="H44" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="I44" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="H44" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>358</v>
-      </c>
       <c r="J44" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K44" s="82"/>
       <c r="L44" s="96"/>
@@ -8509,37 +8509,37 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F46" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="G46" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="H46" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="I46" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="H46" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>358</v>
-      </c>
       <c r="J46" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K46" s="81" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L46" s="95" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M46" s="84"/>
       <c r="N46" s="34"/>
@@ -8547,31 +8547,31 @@
     <row r="47" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D47" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>304</v>
-      </c>
       <c r="F47" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="H47" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="I47" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="H47" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>361</v>
-      </c>
       <c r="J47" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K47" s="82"/>
       <c r="L47" s="96"/>
@@ -8597,37 +8597,37 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D49" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E49" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>304</v>
-      </c>
       <c r="F49" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="G49" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="H49" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="I49" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="H49" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>361</v>
-      </c>
       <c r="J49" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K49" s="81" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L49" s="95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M49" s="84"/>
       <c r="N49" s="34"/>
@@ -8635,31 +8635,31 @@
     <row r="50" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D50" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>310</v>
-      </c>
       <c r="F50" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="G50" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="H50" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="I50" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="H50" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>364</v>
-      </c>
       <c r="J50" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K50" s="82"/>
       <c r="L50" s="96"/>
@@ -8700,6 +8700,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K25:K26"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="M4:M50"/>
     <mergeCell ref="K46:K47"/>
@@ -8716,17 +8727,6 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K25:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8788,8 +8788,8 @@
       <c r="J1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="111" t="s">
-        <v>387</v>
+      <c r="K1" s="113" t="s">
+        <v>386</v>
       </c>
       <c r="L1" s="34"/>
     </row>
@@ -8824,7 +8824,7 @@
       <c r="J2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="112"/>
+      <c r="K2" s="114"/>
       <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8858,77 +8858,77 @@
       <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="113"/>
+      <c r="K3" s="115"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="G4" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>394</v>
-      </c>
       <c r="J4" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="K4" s="114" t="s">
-        <v>365</v>
+        <v>444</v>
+      </c>
+      <c r="K4" s="116" t="s">
+        <v>364</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>399</v>
-      </c>
       <c r="J5" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="K5" s="115"/>
+        <v>423</v>
+      </c>
+      <c r="K5" s="117"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -8950,34 +8950,34 @@
     <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>399</v>
-      </c>
       <c r="J7" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K7" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L7" s="84"/>
       <c r="M7" s="34"/>
@@ -8985,31 +8985,31 @@
     <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>404</v>
-      </c>
       <c r="J8" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K8" s="96"/>
       <c r="L8" s="84"/>
@@ -9033,34 +9033,34 @@
     <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>404</v>
-      </c>
       <c r="J10" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K10" s="95" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L10" s="84"/>
       <c r="M10" s="34"/>
@@ -9068,31 +9068,31 @@
     <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="F11" s="27" t="s">
+      <c r="G11" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>409</v>
-      </c>
       <c r="J11" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K11" s="96"/>
       <c r="L11" s="84"/>
@@ -9116,34 +9116,34 @@
     <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="F13" s="27" t="s">
+      <c r="G13" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="H13" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>409</v>
-      </c>
       <c r="J13" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K13" s="95" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L13" s="84"/>
       <c r="M13" s="34"/>
@@ -9151,31 +9151,31 @@
     <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="G14" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="H14" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>413</v>
-      </c>
       <c r="J14" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K14" s="96"/>
       <c r="L14" s="84"/>
@@ -9199,31 +9199,31 @@
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D16" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>413</v>
-      </c>
       <c r="J16" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K16" s="101" t="s">
         <v>25</v>
@@ -9234,31 +9234,31 @@
     <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="G17" s="27" t="s">
+      <c r="H17" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="I17" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>416</v>
-      </c>
       <c r="J17" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K17" s="102"/>
       <c r="L17" s="84"/>
@@ -9282,34 +9282,34 @@
     <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="G19" s="27" t="s">
+      <c r="H19" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="H19" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>416</v>
-      </c>
       <c r="J19" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K19" s="95" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L19" s="84"/>
       <c r="M19" s="34"/>
@@ -9317,31 +9317,31 @@
     <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D20" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="G20" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="H20" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="I20" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>420</v>
-      </c>
       <c r="J20" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K20" s="96"/>
       <c r="L20" s="84"/>
@@ -9365,34 +9365,34 @@
     <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F22" s="27" t="s">
+      <c r="G22" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="H22" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>420</v>
-      </c>
       <c r="J22" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K22" s="95" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L22" s="84"/>
       <c r="M22" s="34"/>
@@ -9400,31 +9400,31 @@
     <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="F23" s="27" t="s">
+      <c r="G23" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="H23" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>424</v>
-      </c>
       <c r="J23" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K23" s="96"/>
       <c r="L23" s="84"/>
@@ -9448,34 +9448,34 @@
     <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="F25" s="27" t="s">
+      <c r="G25" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="H25" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I25" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>424</v>
-      </c>
       <c r="J25" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K25" s="95" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L25" s="84"/>
       <c r="M25" s="34"/>
@@ -9483,31 +9483,31 @@
     <row r="26" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="G26" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="H26" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>427</v>
-      </c>
       <c r="J26" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K26" s="96"/>
       <c r="L26" s="85"/>
@@ -9531,70 +9531,70 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D28" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="I28" s="26" t="s">
-        <v>430</v>
-      </c>
       <c r="J28" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="K28" s="116" t="s">
-        <v>384</v>
+        <v>523</v>
+      </c>
+      <c r="K28" s="111" t="s">
+        <v>383</v>
       </c>
       <c r="L28" s="83" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D29" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="F29" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="F29" s="27" t="s">
+      <c r="G29" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="H29" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="I29" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="I29" s="26" t="s">
-        <v>437</v>
-      </c>
       <c r="J29" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="K29" s="117"/>
+        <v>524</v>
+      </c>
+      <c r="K29" s="112"/>
       <c r="L29" s="84"/>
       <c r="M29" s="34"/>
     </row>
@@ -9616,34 +9616,34 @@
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D31" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="F31" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="F31" s="27" t="s">
+      <c r="G31" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="H31" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="I31" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>437</v>
-      </c>
       <c r="J31" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="K31" s="116" t="s">
-        <v>385</v>
+        <v>524</v>
+      </c>
+      <c r="K31" s="111" t="s">
+        <v>384</v>
       </c>
       <c r="L31" s="84"/>
       <c r="M31" s="34"/>
@@ -9651,33 +9651,33 @@
     <row r="32" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G32" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="H32" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="I32" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="I32" s="26" t="s">
-        <v>440</v>
-      </c>
       <c r="J32" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="K32" s="117"/>
+        <v>453</v>
+      </c>
+      <c r="K32" s="112"/>
       <c r="L32" s="84"/>
       <c r="M32" s="34"/>
     </row>
@@ -9699,33 +9699,33 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G34" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="H34" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>440</v>
-      </c>
       <c r="J34" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="K34" s="116" t="s">
+        <v>453</v>
+      </c>
+      <c r="K34" s="111" t="s">
         <v>146</v>
       </c>
       <c r="L34" s="84"/>
@@ -9734,33 +9734,33 @@
     <row r="35" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F35" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>442</v>
-      </c>
       <c r="J35" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="K35" s="117"/>
+        <v>525</v>
+      </c>
+      <c r="K35" s="112"/>
       <c r="L35" s="84"/>
       <c r="M35" s="34"/>
     </row>
@@ -9782,31 +9782,31 @@
     <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F37" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="I37" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>442</v>
-      </c>
       <c r="J37" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K37" s="101" t="s">
         <v>25</v>
@@ -9817,31 +9817,31 @@
     <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E38" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="F38" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F38" s="27" t="s">
-        <v>394</v>
-      </c>
       <c r="G38" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H38" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="I38" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="I38" s="26" t="s">
-        <v>444</v>
-      </c>
       <c r="J38" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K38" s="102"/>
       <c r="L38" s="84"/>
@@ -9865,34 +9865,34 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E40" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F40" s="27" t="s">
-        <v>394</v>
-      </c>
       <c r="G40" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H40" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="I40" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="I40" s="26" t="s">
-        <v>444</v>
-      </c>
       <c r="J40" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="K40" s="116" t="s">
-        <v>462</v>
+        <v>526</v>
+      </c>
+      <c r="K40" s="111" t="s">
+        <v>461</v>
       </c>
       <c r="L40" s="84"/>
       <c r="M40" s="34"/>
@@ -9900,33 +9900,33 @@
     <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E41" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F41" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="F41" s="27" t="s">
-        <v>404</v>
-      </c>
       <c r="G41" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="H41" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="I41" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="I41" s="26" t="s">
-        <v>447</v>
-      </c>
       <c r="J41" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="K41" s="117"/>
+        <v>527</v>
+      </c>
+      <c r="K41" s="112"/>
       <c r="L41" s="84"/>
       <c r="M41" s="34"/>
     </row>
@@ -9948,34 +9948,34 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E43" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F43" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="F43" s="27" t="s">
-        <v>404</v>
-      </c>
       <c r="G43" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="H43" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="I43" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="I43" s="26" t="s">
-        <v>447</v>
-      </c>
       <c r="J43" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="K43" s="116" t="s">
-        <v>370</v>
+        <v>527</v>
+      </c>
+      <c r="K43" s="111" t="s">
+        <v>369</v>
       </c>
       <c r="L43" s="84"/>
       <c r="M43" s="34"/>
@@ -9983,33 +9983,33 @@
     <row r="44" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D44" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="G44" s="27" t="s">
+      <c r="H44" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="I44" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="I44" s="26" t="s">
-        <v>451</v>
-      </c>
       <c r="J44" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="K44" s="117"/>
+        <v>528</v>
+      </c>
+      <c r="K44" s="112"/>
       <c r="L44" s="84"/>
       <c r="M44" s="34"/>
     </row>
@@ -10031,34 +10031,34 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D46" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="G46" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="G46" s="27" t="s">
+      <c r="H46" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="I46" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="I46" s="26" t="s">
-        <v>451</v>
-      </c>
       <c r="J46" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="K46" s="116" t="s">
-        <v>463</v>
+        <v>528</v>
+      </c>
+      <c r="K46" s="111" t="s">
+        <v>462</v>
       </c>
       <c r="L46" s="84"/>
       <c r="M46" s="34"/>
@@ -10066,33 +10066,33 @@
     <row r="47" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D47" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H47" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="H47" s="27" t="s">
+      <c r="I47" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="I47" s="26" t="s">
-        <v>454</v>
-      </c>
       <c r="J47" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="K47" s="117"/>
+        <v>529</v>
+      </c>
+      <c r="K47" s="112"/>
       <c r="L47" s="84"/>
       <c r="M47" s="34"/>
     </row>
@@ -10114,34 +10114,34 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D49" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H49" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="H49" s="27" t="s">
+      <c r="I49" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="I49" s="26" t="s">
-        <v>454</v>
-      </c>
       <c r="J49" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K49" s="97" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L49" s="84"/>
       <c r="M49" s="34"/>
@@ -10149,31 +10149,31 @@
     <row r="50" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H50" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="I50" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="I50" s="26" t="s">
-        <v>455</v>
-      </c>
       <c r="J50" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K50" s="98"/>
       <c r="L50" s="85"/>
@@ -10211,6 +10211,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="K49:K50"/>
     <mergeCell ref="L28:L50"/>
     <mergeCell ref="L4:L26"/>
@@ -10225,11 +10230,6 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/assets/forms/final_schedule.xlsx
+++ b/assets/forms/final_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Documents/GitHub/honeybeehealth2021.github.io/assets/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B2DCF0-E1B1-7A49-B72E-3D1299E3FC7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2475E0D5-6B77-D349-991A-8C7532EC2612}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="3" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="5" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="535">
   <si>
     <t>Monday 22 March</t>
   </si>
@@ -1641,6 +1641,12 @@
   </si>
   <si>
     <t>Panuwan Chantawannakul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lotta Fabricius Kristiansen &amp; Linde Morawetz </t>
+  </si>
+  <si>
+    <t>Raffaele Dall'Olio &amp; Steve Rogenstein</t>
   </si>
 </sst>
 </file>
@@ -2211,6 +2217,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2220,6 +2238,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2232,66 +2298,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2382,25 +2388,25 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2749,14 +2755,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -2777,10 +2783,10 @@
       <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="70"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2828,10 +2834,10 @@
       <c r="F5" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2854,8 +2860,8 @@
       <c r="F6" s="10">
         <v>0.46527777777777773</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -2876,10 +2882,10 @@
       <c r="F7" s="10">
         <v>0.47222222222222227</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -2900,8 +2906,8 @@
       <c r="F8" s="10">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="61" t="s">
+      <c r="H8" s="64"/>
+      <c r="I8" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2924,8 +2930,8 @@
       <c r="F9" s="10">
         <v>0.4861111111111111</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="62"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -2946,8 +2952,8 @@
       <c r="F10" s="10">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="63"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -2968,10 +2974,10 @@
       <c r="F11" s="10">
         <v>0.5</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2994,8 +3000,8 @@
       <c r="F12" s="10">
         <v>0.50694444444444442</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -3016,8 +3022,8 @@
       <c r="F13" s="10">
         <v>0.51388888888888895</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -3038,10 +3044,10 @@
       <c r="F14" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="69" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3064,8 +3070,8 @@
       <c r="F15" s="10">
         <v>0.52777777777777779</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
@@ -3086,10 +3092,10 @@
       <c r="F16" s="10">
         <v>0.53472222222222221</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3112,8 +3118,8 @@
       <c r="F17" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -3134,8 +3140,8 @@
       <c r="F18" s="10">
         <v>0.54861111111111105</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -3156,10 +3162,10 @@
       <c r="F19" s="10">
         <v>0.55555555555555558</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="61" t="s">
+      <c r="I19" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3182,8 +3188,8 @@
       <c r="F20" s="10">
         <v>0.5625</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
@@ -3204,8 +3210,8 @@
       <c r="F21" s="10">
         <v>0.56944444444444442</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -3274,10 +3280,10 @@
       <c r="F25" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="54" t="s">
+      <c r="I25" s="58" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3300,8 +3306,8 @@
       <c r="F26" s="10">
         <v>0.65277777777777779</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="55"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -3322,8 +3328,8 @@
       <c r="F27" s="10">
         <v>0.65972222222222221</v>
       </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="55"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -3344,10 +3350,10 @@
       <c r="F28" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="55"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -3368,8 +3374,8 @@
       <c r="F29" s="10">
         <v>0.67361111111111116</v>
       </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="55"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -3390,8 +3396,8 @@
       <c r="F30" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H30" s="63"/>
-      <c r="I30" s="56"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -3412,10 +3418,10 @@
       <c r="F31" s="10">
         <v>0.6875</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="64" t="s">
+      <c r="I31" s="69" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3438,8 +3444,8 @@
       <c r="F32" s="10">
         <v>0.69444444444444453</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="65"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="70"/>
     </row>
     <row r="33" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
@@ -3460,8 +3466,8 @@
       <c r="F33" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="H33" s="63"/>
-      <c r="I33" s="54" t="s">
+      <c r="H33" s="68"/>
+      <c r="I33" s="58" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3484,10 +3490,10 @@
       <c r="F34" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="55"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -3508,8 +3514,8 @@
       <c r="F35" s="10">
         <v>0.71527777777777779</v>
       </c>
-      <c r="H35" s="65"/>
-      <c r="I35" s="55"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
@@ -3530,10 +3536,10 @@
       <c r="F36" s="10">
         <v>0.72222222222222221</v>
       </c>
-      <c r="H36" s="61" t="s">
+      <c r="H36" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="55"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -3554,8 +3560,8 @@
       <c r="F37" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="55"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -3576,8 +3582,8 @@
       <c r="F38" s="10">
         <v>0.73611111111111116</v>
       </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="55"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
@@ -3598,10 +3604,10 @@
       <c r="F39" s="10">
         <v>0.74305555555555547</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="H39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="56"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
@@ -3622,8 +3628,8 @@
       <c r="F40" s="10">
         <v>0.75</v>
       </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="78" t="s">
+      <c r="H40" s="67"/>
+      <c r="I40" s="71" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3646,8 +3652,8 @@
       <c r="F41" s="10">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="79"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="72"/>
     </row>
     <row r="42" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
@@ -3669,7 +3675,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="79"/>
+      <c r="I42" s="72"/>
     </row>
     <row r="43" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
@@ -3691,7 +3697,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="79"/>
+      <c r="I43" s="72"/>
     </row>
     <row r="44" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
@@ -3713,7 +3719,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="79"/>
+      <c r="I44" s="72"/>
     </row>
     <row r="45" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
@@ -3735,7 +3741,7 @@
         <v>0.8125</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="80"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
@@ -3756,14 +3762,14 @@
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
     </row>
     <row r="49" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -3784,11 +3790,11 @@
       <c r="F49" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="57" t="s">
+      <c r="H49" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="58"/>
-      <c r="J49" s="59"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="79"/>
     </row>
     <row r="50" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -3851,13 +3857,13 @@
       <c r="F52" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="54" t="s">
+      <c r="I52" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="54" t="s">
+      <c r="J52" s="58" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3880,9 +3886,9 @@
       <c r="F53" s="10">
         <v>0.86111111111111116</v>
       </c>
-      <c r="H53" s="72"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
@@ -3903,11 +3909,11 @@
       <c r="F54" s="10">
         <v>0.86805555555555547</v>
       </c>
-      <c r="H54" s="54" t="s">
+      <c r="H54" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
@@ -3930,11 +3936,11 @@
       <c r="F55" s="10">
         <v>0.875</v>
       </c>
-      <c r="H55" s="55"/>
-      <c r="I55" s="54" t="s">
+      <c r="H55" s="59"/>
+      <c r="I55" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="54" t="s">
+      <c r="J55" s="58" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3957,9 +3963,9 @@
       <c r="F56" s="10">
         <v>0.88194444444444453</v>
       </c>
-      <c r="H56" s="56"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
     </row>
     <row r="57" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
@@ -3980,11 +3986,11 @@
       <c r="F57" s="10">
         <v>0.88888888888888884</v>
       </c>
-      <c r="H57" s="54" t="s">
+      <c r="H57" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
     </row>
     <row r="58" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
@@ -4005,11 +4011,11 @@
       <c r="F58" s="10">
         <v>0.89583333333333337</v>
       </c>
-      <c r="H58" s="55"/>
-      <c r="I58" s="54" t="s">
+      <c r="H58" s="59"/>
+      <c r="I58" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J58" s="54" t="s">
+      <c r="J58" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4032,9 +4038,9 @@
       <c r="F59" s="10">
         <v>0.90277777777777779</v>
       </c>
-      <c r="H59" s="56"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
     </row>
     <row r="60" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
@@ -4055,11 +4061,11 @@
       <c r="F60" s="10">
         <v>0.90972222222222221</v>
       </c>
-      <c r="H60" s="64" t="s">
+      <c r="H60" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
       <c r="K60" s="6"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4084,11 +4090,11 @@
       <c r="F61" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="H61" s="65"/>
-      <c r="I61" s="64" t="s">
+      <c r="H61" s="70"/>
+      <c r="I61" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="64" t="s">
+      <c r="J61" s="69" t="s">
         <v>25</v>
       </c>
       <c r="K61" s="6"/>
@@ -4115,11 +4121,11 @@
       <c r="F62" s="10">
         <v>0.92361111111111116</v>
       </c>
-      <c r="H62" s="54" t="s">
+      <c r="H62" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4143,11 +4149,11 @@
       <c r="F63" s="10">
         <v>0.93055555555555547</v>
       </c>
-      <c r="H63" s="55"/>
-      <c r="I63" s="54" t="s">
+      <c r="H63" s="59"/>
+      <c r="I63" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="54" t="s">
+      <c r="J63" s="58" t="s">
         <v>24</v>
       </c>
       <c r="K63" s="6"/>
@@ -4173,9 +4179,9 @@
       <c r="F64" s="10">
         <v>0.9375</v>
       </c>
-      <c r="H64" s="56"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
       <c r="K64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4199,11 +4205,11 @@
       <c r="F65" s="10">
         <v>0.94444444444444453</v>
       </c>
-      <c r="H65" s="54" t="s">
+      <c r="H65" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
       <c r="K65" s="6"/>
       <c r="L65" s="1"/>
       <c r="M65" s="6"/>
@@ -4228,11 +4234,11 @@
       <c r="F66" s="10">
         <v>0.95138888888888884</v>
       </c>
-      <c r="H66" s="55"/>
-      <c r="I66" s="54" t="s">
+      <c r="H66" s="59"/>
+      <c r="I66" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="66" t="s">
+      <c r="J66" s="74" t="s">
         <v>42</v>
       </c>
       <c r="K66" s="6"/>
@@ -4259,9 +4265,9 @@
       <c r="F67" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="H67" s="56"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="67"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="75"/>
       <c r="K67" s="6"/>
       <c r="L67" s="3"/>
       <c r="M67" s="6"/>
@@ -4286,11 +4292,11 @@
       <c r="F68" s="10">
         <v>0.96527777777777779</v>
       </c>
-      <c r="H68" s="64" t="s">
+      <c r="H68" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="67"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="75"/>
       <c r="K68" s="6"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -4315,11 +4321,11 @@
       <c r="F69" s="10">
         <v>0.97222222222222221</v>
       </c>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66" t="s">
+      <c r="H69" s="70"/>
+      <c r="I69" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="J69" s="68"/>
+      <c r="J69" s="76"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -4344,10 +4350,10 @@
       <c r="F70" s="10">
         <v>0.97916666666666663</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H70" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="67"/>
+      <c r="I70" s="75"/>
       <c r="J70" s="11" t="s">
         <v>32</v>
       </c>
@@ -4375,8 +4381,8 @@
       <c r="F71" s="10">
         <v>0.98611111111111116</v>
       </c>
-      <c r="H71" s="55"/>
-      <c r="I71" s="67"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="75"/>
       <c r="J71" s="12"/>
       <c r="K71" s="6"/>
       <c r="L71" s="3"/>
@@ -4402,8 +4408,8 @@
       <c r="F72" s="10">
         <v>0.99305555555555547</v>
       </c>
-      <c r="H72" s="56"/>
-      <c r="I72" s="68"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="76"/>
       <c r="J72" s="12"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -4530,21 +4536,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I39"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="H62:H64"/>
     <mergeCell ref="H65:H67"/>
@@ -4561,22 +4568,21 @@
     <mergeCell ref="I69:I72"/>
     <mergeCell ref="J63:J65"/>
     <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="I40:I45"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4741,7 +4747,7 @@
       <c r="J4" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="56" t="s">
         <v>149</v>
       </c>
       <c r="L4" s="83" t="s">
@@ -4778,7 +4784,7 @@
       <c r="J5" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -6304,7 +6310,7 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M29" sqref="A1:M29"/>
     </sheetView>
   </sheetViews>
@@ -8700,17 +8706,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K25:K26"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="M4:M50"/>
     <mergeCell ref="K46:K47"/>
@@ -8727,6 +8722,17 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K25:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8740,8 +8746,8 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M51" sqref="A1:M51"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8752,7 +8758,7 @@
     <col min="6" max="6" width="15" style="38" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="12" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="26" style="22" customWidth="1"/>
     <col min="12" max="12" width="5.83203125" style="22" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="22"/>
   </cols>
@@ -8788,7 +8794,7 @@
       <c r="J1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="111" t="s">
         <v>386</v>
       </c>
       <c r="L1" s="34"/>
@@ -8824,7 +8830,7 @@
       <c r="J2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="114"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8858,7 +8864,7 @@
       <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="115"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
@@ -8891,7 +8897,7 @@
       <c r="J4" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="K4" s="116" t="s">
+      <c r="K4" s="114" t="s">
         <v>364</v>
       </c>
       <c r="L4" s="83" t="s">
@@ -8928,7 +8934,7 @@
       <c r="J5" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="K5" s="117"/>
+      <c r="K5" s="115"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -9557,8 +9563,8 @@
       <c r="J28" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="K28" s="111" t="s">
-        <v>383</v>
+      <c r="K28" s="116" t="s">
+        <v>533</v>
       </c>
       <c r="L28" s="83" t="s">
         <v>465</v>
@@ -9594,7 +9600,7 @@
       <c r="J29" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="K29" s="112"/>
+      <c r="K29" s="117"/>
       <c r="L29" s="84"/>
       <c r="M29" s="34"/>
     </row>
@@ -9642,8 +9648,8 @@
       <c r="J31" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="K31" s="111" t="s">
-        <v>384</v>
+      <c r="K31" s="116" t="s">
+        <v>534</v>
       </c>
       <c r="L31" s="84"/>
       <c r="M31" s="34"/>
@@ -9677,7 +9683,7 @@
       <c r="J32" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="K32" s="112"/>
+      <c r="K32" s="117"/>
       <c r="L32" s="84"/>
       <c r="M32" s="34"/>
     </row>
@@ -9725,7 +9731,7 @@
       <c r="J34" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="K34" s="111" t="s">
+      <c r="K34" s="116" t="s">
         <v>146</v>
       </c>
       <c r="L34" s="84"/>
@@ -9760,7 +9766,7 @@
       <c r="J35" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="K35" s="112"/>
+      <c r="K35" s="117"/>
       <c r="L35" s="84"/>
       <c r="M35" s="34"/>
     </row>
@@ -9891,7 +9897,7 @@
       <c r="J40" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="K40" s="111" t="s">
+      <c r="K40" s="116" t="s">
         <v>461</v>
       </c>
       <c r="L40" s="84"/>
@@ -9926,7 +9932,7 @@
       <c r="J41" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="K41" s="112"/>
+      <c r="K41" s="117"/>
       <c r="L41" s="84"/>
       <c r="M41" s="34"/>
     </row>
@@ -9974,7 +9980,7 @@
       <c r="J43" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="K43" s="111" t="s">
+      <c r="K43" s="116" t="s">
         <v>369</v>
       </c>
       <c r="L43" s="84"/>
@@ -10009,7 +10015,7 @@
       <c r="J44" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="K44" s="112"/>
+      <c r="K44" s="117"/>
       <c r="L44" s="84"/>
       <c r="M44" s="34"/>
     </row>
@@ -10057,7 +10063,7 @@
       <c r="J46" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="K46" s="111" t="s">
+      <c r="K46" s="116" t="s">
         <v>462</v>
       </c>
       <c r="L46" s="84"/>
@@ -10092,7 +10098,7 @@
       <c r="J47" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="K47" s="112"/>
+      <c r="K47" s="117"/>
       <c r="L47" s="84"/>
       <c r="M47" s="34"/>
     </row>
@@ -10211,11 +10217,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K13:K14"/>
     <mergeCell ref="K49:K50"/>
     <mergeCell ref="L28:L50"/>
     <mergeCell ref="L4:L26"/>
@@ -10230,6 +10231,11 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/assets/forms/final_schedule.xlsx
+++ b/assets/forms/final_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Documents/GitHub/honeybeehealth2021.github.io/assets/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2475E0D5-6B77-D349-991A-8C7532EC2612}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AFAFC4-3F7D-7D40-AE7E-8C2EEB3EB6A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="5" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="3" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="521">
   <si>
     <t>Monday 22 March</t>
   </si>
@@ -878,57 +878,9 @@
     <t>Wed 22:50</t>
   </si>
   <si>
-    <t>Wed 05:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wed 08:20 </t>
-  </si>
-  <si>
-    <t>Wed 14:20</t>
-  </si>
-  <si>
-    <t>Wed 16:20</t>
-  </si>
-  <si>
-    <t>Wed 17:50</t>
-  </si>
-  <si>
-    <t>Wed 21:20</t>
-  </si>
-  <si>
     <t>Wed 23:20</t>
   </si>
   <si>
-    <t>Wed 08:20</t>
-  </si>
-  <si>
-    <t>Wed 05:35</t>
-  </si>
-  <si>
-    <t>Wed 08:35</t>
-  </si>
-  <si>
-    <t>Wed 13:35</t>
-  </si>
-  <si>
-    <t>Wed 14:35</t>
-  </si>
-  <si>
-    <t>Wed 16:35</t>
-  </si>
-  <si>
-    <t>Wed 18:05</t>
-  </si>
-  <si>
-    <t>Wed 20:35</t>
-  </si>
-  <si>
-    <t>Wed 21:35</t>
-  </si>
-  <si>
-    <t>Wed 23:35</t>
-  </si>
-  <si>
     <t>Wed 09:00</t>
   </si>
   <si>
@@ -1647,6 +1599,12 @@
   </si>
   <si>
     <t>Raffaele Dall'Olio &amp; Steve Rogenstein</t>
+  </si>
+  <si>
+    <t>Wed 23:30</t>
+  </si>
+  <si>
+    <t>Wed 08:30</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1711,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1835,6 +1793,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBED8EF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,7 +2036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2298,94 +2262,103 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2417,6 +2390,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBED8EF"/>
       <color rgb="FF6CD964"/>
       <color rgb="FF0432FF"/>
       <color rgb="FFA6FFF6"/>
@@ -4597,7 +4571,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="A1:M29"/>
+      <selection sqref="A1:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4751,7 +4725,7 @@
         <v>149</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -5441,8 +5415,8 @@
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5454,7 +5428,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection sqref="A1:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5608,7 +5582,7 @@
         <v>154</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -6298,8 +6272,8 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6308,10 +6282,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="A1:M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6357,7 +6331,7 @@
         <v>61</v>
       </c>
       <c r="K1" s="86" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
@@ -6461,11 +6435,11 @@
       <c r="J4" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="L4" s="83" t="s">
-        <v>466</v>
+      <c r="L4" s="95" t="s">
+        <v>450</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -6498,8 +6472,8 @@
       <c r="J5" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="84"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6513,7 +6487,7 @@
       <c r="H6" s="29"/>
       <c r="I6" s="31"/>
       <c r="J6" s="29"/>
-      <c r="L6" s="84"/>
+      <c r="L6" s="95"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -6545,10 +6519,10 @@
       <c r="J7" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="L7" s="84"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6580,8 +6554,8 @@
       <c r="J8" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="84"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="95"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6595,7 +6569,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="31"/>
       <c r="J9" s="29"/>
-      <c r="L9" s="84"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -6627,10 +6601,10 @@
       <c r="J10" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="L10" s="84"/>
+      <c r="L10" s="95"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6662,8 +6636,8 @@
       <c r="J11" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="K11" s="100"/>
-      <c r="L11" s="84"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="34"/>
       <c r="N11" s="24"/>
     </row>
@@ -6678,7 +6652,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="31"/>
       <c r="J12" s="29"/>
-      <c r="L12" s="84"/>
+      <c r="L12" s="95"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -6710,10 +6684,10 @@
       <c r="J13" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="K13" s="101" t="s">
+      <c r="K13" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="84"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6745,8 +6719,8 @@
       <c r="J14" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="84"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="95"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6760,7 +6734,7 @@
       <c r="H15" s="29"/>
       <c r="I15" s="31"/>
       <c r="J15" s="29"/>
-      <c r="L15" s="84"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -6792,10 +6766,10 @@
       <c r="J16" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="K16" s="99" t="s">
-        <v>532</v>
-      </c>
-      <c r="L16" s="84"/>
+      <c r="K16" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="L16" s="95"/>
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6827,8 +6801,8 @@
       <c r="J17" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="K17" s="100"/>
-      <c r="L17" s="84"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6842,7 +6816,7 @@
       <c r="H18" s="29"/>
       <c r="I18" s="31"/>
       <c r="J18" s="29"/>
-      <c r="L18" s="84"/>
+      <c r="L18" s="95"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6874,43 +6848,43 @@
       <c r="J19" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="K19" s="97" t="s">
+      <c r="K19" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="84"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>279</v>
+        <v>520</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="K20" s="98"/>
-      <c r="L20" s="84"/>
+        <v>519</v>
+      </c>
+      <c r="K20" s="101"/>
+      <c r="L20" s="95"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6924,75 +6898,75 @@
       <c r="H21" s="29"/>
       <c r="I21" s="31"/>
       <c r="J21" s="29"/>
-      <c r="L21" s="84"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="27" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>285</v>
+        <v>520</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="K22" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="84"/>
+        <v>519</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="95"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="27" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="K23" s="96"/>
-      <c r="L23" s="84"/>
+        <v>281</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" ht="8" customHeight="1" x14ac:dyDescent="0.2">
@@ -7006,154 +6980,39 @@
       <c r="H24" s="29"/>
       <c r="I24" s="31"/>
       <c r="J24" s="29"/>
-      <c r="L24" s="84"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="95"/>
       <c r="M24" s="34"/>
     </row>
     <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
-      <c r="B25" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>294</v>
-      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="34"/>
-      <c r="L25" s="84"/>
+      <c r="L25" s="34"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="27" spans="1:13" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="29"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="34"/>
-    </row>
-    <row r="28" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="K28" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="85"/>
-      <c r="M28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-    </row>
-    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L4:L28"/>
+  <mergeCells count="8">
+    <mergeCell ref="L4:L24"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K19:K20"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="98" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7212,10 +7071,10 @@
       <c r="J1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="103" t="s">
-        <v>387</v>
-      </c>
-      <c r="L1" s="104"/>
+      <c r="K1" s="104" t="s">
+        <v>371</v>
+      </c>
+      <c r="L1" s="105"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
     </row>
@@ -7250,8 +7109,8 @@
       <c r="J2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
@@ -7286,46 +7145,46 @@
       <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="109"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="27" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="K4" s="109" t="s">
-        <v>364</v>
+        <v>342</v>
+      </c>
+      <c r="K4" s="110" t="s">
+        <v>348</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="83" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="N4" s="34"/>
     </row>
@@ -7338,27 +7197,27 @@
         <v>246</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="K5" s="110"/>
+        <v>345</v>
+      </c>
+      <c r="K5" s="111"/>
       <c r="L5" s="37"/>
       <c r="M5" s="84"/>
       <c r="N5" s="34"/>
@@ -7388,28 +7247,28 @@
         <v>246</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="K7" s="109" t="s">
-        <v>365</v>
+        <v>345</v>
+      </c>
+      <c r="K7" s="110" t="s">
+        <v>349</v>
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="84"/>
@@ -7424,27 +7283,27 @@
         <v>253</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="K8" s="110"/>
+        <v>337</v>
+      </c>
+      <c r="K8" s="111"/>
       <c r="L8" s="37"/>
       <c r="M8" s="84"/>
       <c r="N8" s="53"/>
@@ -7474,28 +7333,28 @@
         <v>253</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="K10" s="81" t="s">
-        <v>366</v>
+        <v>337</v>
+      </c>
+      <c r="K10" s="102" t="s">
+        <v>350</v>
       </c>
       <c r="L10" s="37"/>
       <c r="M10" s="84"/>
@@ -7505,33 +7364,33 @@
     <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="27" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="K11" s="82"/>
+        <v>340</v>
+      </c>
+      <c r="K11" s="103"/>
       <c r="L11" s="37"/>
       <c r="M11" s="84"/>
       <c r="N11" s="53"/>
@@ -7555,34 +7414,34 @@
     <row r="13" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="27" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="K13" s="81" t="s">
-        <v>367</v>
+        <v>340</v>
+      </c>
+      <c r="K13" s="102" t="s">
+        <v>351</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="84"/>
@@ -7591,33 +7450,33 @@
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="27" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="K14" s="82"/>
+        <v>343</v>
+      </c>
+      <c r="K14" s="103"/>
       <c r="L14" s="37"/>
       <c r="M14" s="84"/>
       <c r="N14" s="34"/>
@@ -7641,34 +7500,34 @@
     <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="27" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="K16" s="81" t="s">
-        <v>369</v>
+        <v>343</v>
+      </c>
+      <c r="K16" s="102" t="s">
+        <v>353</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="84"/>
@@ -7680,30 +7539,30 @@
         <v>252</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>327</v>
-      </c>
       <c r="F17" s="27" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="K17" s="82"/>
+        <v>346</v>
+      </c>
+      <c r="K17" s="103"/>
       <c r="L17" s="37"/>
       <c r="M17" s="84"/>
       <c r="N17" s="34"/>
@@ -7730,31 +7589,31 @@
         <v>252</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>327</v>
-      </c>
       <c r="F19" s="27" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="K19" s="81" t="s">
-        <v>368</v>
+        <v>346</v>
+      </c>
+      <c r="K19" s="102" t="s">
+        <v>352</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="84"/>
@@ -7769,27 +7628,27 @@
         <v>277</v>
       </c>
       <c r="D20" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="I20" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>333</v>
-      </c>
       <c r="J20" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="K20" s="82"/>
+        <v>471</v>
+      </c>
+      <c r="K20" s="103"/>
       <c r="L20" s="37"/>
       <c r="M20" s="84"/>
       <c r="N20" s="34"/>
@@ -7819,28 +7678,28 @@
         <v>277</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>333</v>
-      </c>
       <c r="J22" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="K22" s="81" t="s">
-        <v>370</v>
+        <v>471</v>
+      </c>
+      <c r="K22" s="102" t="s">
+        <v>354</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="84"/>
@@ -7849,33 +7708,33 @@
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="27" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="K23" s="82"/>
+        <v>472</v>
+      </c>
+      <c r="K23" s="103"/>
       <c r="L23" s="37"/>
       <c r="M23" s="84"/>
       <c r="N23" s="34"/>
@@ -7902,34 +7761,34 @@
         <v>259</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="H25" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="K25" s="81" t="s">
-        <v>371</v>
-      </c>
-      <c r="L25" s="95" t="s">
-        <v>378</v>
+      <c r="K25" s="102" t="s">
+        <v>355</v>
+      </c>
+      <c r="L25" s="112" t="s">
+        <v>362</v>
       </c>
       <c r="M25" s="84"/>
       <c r="N25" s="34"/>
@@ -7940,31 +7799,31 @@
         <v>268</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F26" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="J26" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="K26" s="82"/>
-      <c r="L26" s="96"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="113"/>
       <c r="M26" s="84"/>
       <c r="N26" s="34"/>
     </row>
@@ -7990,34 +7849,34 @@
         <v>268</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F28" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="J28" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="G28" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="K28" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="L28" s="95" t="s">
-        <v>379</v>
+      <c r="K28" s="102" t="s">
+        <v>356</v>
+      </c>
+      <c r="L28" s="112" t="s">
+        <v>363</v>
       </c>
       <c r="M28" s="84"/>
       <c r="N28" s="34"/>
@@ -8025,34 +7884,34 @@
     <row r="29" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="27" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D29" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="J29" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="K29" s="82"/>
-      <c r="L29" s="96"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="113"/>
       <c r="M29" s="84"/>
       <c r="N29" s="34"/>
     </row>
@@ -8075,37 +7934,37 @@
     <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="27" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D31" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="J31" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="K31" s="81" t="s">
-        <v>531</v>
-      </c>
-      <c r="L31" s="95" t="s">
-        <v>380</v>
+      <c r="K31" s="102" t="s">
+        <v>515</v>
+      </c>
+      <c r="L31" s="112" t="s">
+        <v>364</v>
       </c>
       <c r="M31" s="84"/>
       <c r="N31" s="34"/>
@@ -8113,34 +7972,34 @@
     <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="27" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D32" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E32" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>329</v>
-      </c>
       <c r="H32" s="27" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I32" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="J32" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="J32" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="K32" s="82"/>
-      <c r="L32" s="96"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="113"/>
       <c r="M32" s="84"/>
       <c r="N32" s="34"/>
     </row>
@@ -8163,37 +8022,37 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="27" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D34" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>329</v>
-      </c>
       <c r="H34" s="27" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I34" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="J34" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="J34" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="K34" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="L34" s="95" t="s">
-        <v>381</v>
+      <c r="K34" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="L34" s="112" t="s">
+        <v>365</v>
       </c>
       <c r="M34" s="84"/>
       <c r="N34" s="34"/>
@@ -8201,34 +8060,34 @@
     <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="27" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E35" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="F35" s="27" t="s">
-        <v>348</v>
-      </c>
       <c r="G35" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="H35" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>349</v>
-      </c>
       <c r="J35" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="K35" s="82"/>
-      <c r="L35" s="96"/>
+        <v>473</v>
+      </c>
+      <c r="K35" s="103"/>
+      <c r="L35" s="113"/>
       <c r="M35" s="84"/>
       <c r="N35" s="34"/>
     </row>
@@ -8251,36 +8110,36 @@
     <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="27" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E37" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="F37" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="F37" s="27" t="s">
-        <v>348</v>
-      </c>
       <c r="G37" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="I37" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="H37" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>349</v>
-      </c>
       <c r="J37" s="27" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="K37" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="101" t="s">
+      <c r="L37" s="98" t="s">
         <v>25</v>
       </c>
       <c r="M37" s="84"/>
@@ -8289,34 +8148,34 @@
     <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="27" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="K38" s="92"/>
-      <c r="L38" s="102"/>
+      <c r="L38" s="99"/>
       <c r="M38" s="84"/>
       <c r="N38" s="34"/>
     </row>
@@ -8339,37 +8198,37 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="27" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>490</v>
-      </c>
-      <c r="K40" s="81" t="s">
-        <v>374</v>
-      </c>
-      <c r="L40" s="95" t="s">
-        <v>382</v>
+        <v>474</v>
+      </c>
+      <c r="K40" s="102" t="s">
+        <v>358</v>
+      </c>
+      <c r="L40" s="112" t="s">
+        <v>366</v>
       </c>
       <c r="M40" s="84"/>
       <c r="N40" s="34"/>
@@ -8377,34 +8236,34 @@
     <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="27" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="K41" s="82"/>
-      <c r="L41" s="96"/>
+        <v>475</v>
+      </c>
+      <c r="K41" s="103"/>
+      <c r="L41" s="113"/>
       <c r="M41" s="84"/>
       <c r="N41" s="34"/>
     </row>
@@ -8427,37 +8286,37 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="K43" s="81" t="s">
-        <v>375</v>
-      </c>
-      <c r="L43" s="95" t="s">
-        <v>383</v>
+        <v>475</v>
+      </c>
+      <c r="K43" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" s="112" t="s">
+        <v>367</v>
       </c>
       <c r="M43" s="84"/>
       <c r="N43" s="34"/>
@@ -8465,34 +8324,34 @@
     <row r="44" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="E44" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="I44" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="F44" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>357</v>
-      </c>
       <c r="J44" s="27" t="s">
-        <v>492</v>
-      </c>
-      <c r="K44" s="82"/>
-      <c r="L44" s="96"/>
+        <v>476</v>
+      </c>
+      <c r="K44" s="103"/>
+      <c r="L44" s="113"/>
       <c r="M44" s="84"/>
       <c r="N44" s="34"/>
     </row>
@@ -8515,37 +8374,37 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="E46" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="I46" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="F46" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>357</v>
-      </c>
       <c r="J46" s="27" t="s">
-        <v>492</v>
-      </c>
-      <c r="K46" s="81" t="s">
-        <v>376</v>
-      </c>
-      <c r="L46" s="95" t="s">
-        <v>384</v>
+        <v>476</v>
+      </c>
+      <c r="K46" s="102" t="s">
+        <v>360</v>
+      </c>
+      <c r="L46" s="112" t="s">
+        <v>368</v>
       </c>
       <c r="M46" s="84"/>
       <c r="N46" s="34"/>
@@ -8553,34 +8412,34 @@
     <row r="47" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="K47" s="82"/>
-      <c r="L47" s="96"/>
+        <v>477</v>
+      </c>
+      <c r="K47" s="103"/>
+      <c r="L47" s="113"/>
       <c r="M47" s="84"/>
       <c r="N47" s="34"/>
     </row>
@@ -8603,37 +8462,37 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="K49" s="81" t="s">
-        <v>377</v>
-      </c>
-      <c r="L49" s="95" t="s">
-        <v>385</v>
+        <v>477</v>
+      </c>
+      <c r="K49" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="L49" s="112" t="s">
+        <v>369</v>
       </c>
       <c r="M49" s="84"/>
       <c r="N49" s="34"/>
@@ -8641,34 +8500,34 @@
     <row r="50" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>494</v>
-      </c>
-      <c r="K50" s="82"/>
-      <c r="L50" s="96"/>
+        <v>478</v>
+      </c>
+      <c r="K50" s="103"/>
+      <c r="L50" s="113"/>
       <c r="M50" s="85"/>
       <c r="N50" s="34"/>
     </row>
@@ -8746,7 +8605,7 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -8794,8 +8653,8 @@
       <c r="J1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="111" t="s">
-        <v>386</v>
+      <c r="K1" s="114" t="s">
+        <v>370</v>
       </c>
       <c r="L1" s="34"/>
     </row>
@@ -8830,7 +8689,7 @@
       <c r="J2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="112"/>
+      <c r="K2" s="115"/>
       <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8864,77 +8723,77 @@
       <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="113"/>
+      <c r="K3" s="116"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="27" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="K4" s="114" t="s">
-        <v>364</v>
+        <v>428</v>
+      </c>
+      <c r="K4" s="117" t="s">
+        <v>348</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="27" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="K5" s="115"/>
+        <v>407</v>
+      </c>
+      <c r="K5" s="118"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -8956,34 +8815,34 @@
     <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="27" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="K7" s="95" t="s">
-        <v>455</v>
+        <v>407</v>
+      </c>
+      <c r="K7" s="112" t="s">
+        <v>439</v>
       </c>
       <c r="L7" s="84"/>
       <c r="M7" s="34"/>
@@ -8991,33 +8850,33 @@
     <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="27" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="K8" s="96"/>
+        <v>410</v>
+      </c>
+      <c r="K8" s="113"/>
       <c r="L8" s="84"/>
       <c r="M8" s="34"/>
     </row>
@@ -9039,34 +8898,34 @@
     <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="27" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="K10" s="95" t="s">
-        <v>456</v>
+        <v>410</v>
+      </c>
+      <c r="K10" s="112" t="s">
+        <v>440</v>
       </c>
       <c r="L10" s="84"/>
       <c r="M10" s="34"/>
@@ -9074,33 +8933,33 @@
     <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="27" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="K11" s="96"/>
+        <v>414</v>
+      </c>
+      <c r="K11" s="113"/>
       <c r="L11" s="84"/>
       <c r="M11" s="34"/>
     </row>
@@ -9122,34 +8981,34 @@
     <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="27" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="K13" s="95" t="s">
-        <v>457</v>
+        <v>414</v>
+      </c>
+      <c r="K13" s="112" t="s">
+        <v>441</v>
       </c>
       <c r="L13" s="84"/>
       <c r="M13" s="34"/>
@@ -9157,33 +9016,33 @@
     <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="27" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="E14" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>411</v>
-      </c>
       <c r="H14" s="27" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="K14" s="96"/>
+        <v>422</v>
+      </c>
+      <c r="K14" s="113"/>
       <c r="L14" s="84"/>
       <c r="M14" s="34"/>
     </row>
@@ -9205,33 +9064,33 @@
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="27" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="E16" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>411</v>
-      </c>
       <c r="H16" s="27" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="K16" s="101" t="s">
+        <v>422</v>
+      </c>
+      <c r="K16" s="98" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="84"/>
@@ -9240,33 +9099,33 @@
     <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="27" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="K17" s="102"/>
+        <v>506</v>
+      </c>
+      <c r="K17" s="99"/>
       <c r="L17" s="84"/>
       <c r="M17" s="34"/>
     </row>
@@ -9288,34 +9147,34 @@
     <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="27" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="K19" s="95" t="s">
-        <v>458</v>
+        <v>506</v>
+      </c>
+      <c r="K19" s="112" t="s">
+        <v>442</v>
       </c>
       <c r="L19" s="84"/>
       <c r="M19" s="34"/>
@@ -9323,33 +9182,33 @@
     <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="27" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="K20" s="96"/>
+        <v>415</v>
+      </c>
+      <c r="K20" s="113"/>
       <c r="L20" s="84"/>
       <c r="M20" s="34"/>
     </row>
@@ -9371,34 +9230,34 @@
     <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="27" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="K22" s="95" t="s">
-        <v>459</v>
+        <v>415</v>
+      </c>
+      <c r="K22" s="112" t="s">
+        <v>443</v>
       </c>
       <c r="L22" s="84"/>
       <c r="M22" s="34"/>
@@ -9406,33 +9265,33 @@
     <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="27" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="I23" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="J23" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="K23" s="96"/>
+      <c r="K23" s="113"/>
       <c r="L23" s="84"/>
       <c r="M23" s="34"/>
     </row>
@@ -9454,34 +9313,34 @@
     <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="27" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="I25" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="J25" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="K25" s="95" t="s">
-        <v>460</v>
+      <c r="K25" s="112" t="s">
+        <v>444</v>
       </c>
       <c r="L25" s="84"/>
       <c r="M25" s="34"/>
@@ -9489,33 +9348,33 @@
     <row r="26" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="27" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="K26" s="96"/>
+        <v>429</v>
+      </c>
+      <c r="K26" s="113"/>
       <c r="L26" s="85"/>
       <c r="M26" s="34"/>
     </row>
@@ -9537,70 +9396,70 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>516</v>
-      </c>
       <c r="D28" s="27" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="K28" s="116" t="s">
-        <v>533</v>
+        <v>507</v>
+      </c>
+      <c r="K28" s="119" t="s">
+        <v>517</v>
       </c>
       <c r="L28" s="83" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>517</v>
-      </c>
       <c r="D29" s="27" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="K29" s="117"/>
+        <v>508</v>
+      </c>
+      <c r="K29" s="120"/>
       <c r="L29" s="84"/>
       <c r="M29" s="34"/>
     </row>
@@ -9622,34 +9481,34 @@
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C31" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>517</v>
-      </c>
       <c r="D31" s="27" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="K31" s="116" t="s">
-        <v>534</v>
+        <v>508</v>
+      </c>
+      <c r="K31" s="119" t="s">
+        <v>518</v>
       </c>
       <c r="L31" s="84"/>
       <c r="M31" s="34"/>
@@ -9657,33 +9516,33 @@
     <row r="32" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="27" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="G32" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="J32" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="H32" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="K32" s="117"/>
+      <c r="K32" s="120"/>
       <c r="L32" s="84"/>
       <c r="M32" s="34"/>
     </row>
@@ -9705,33 +9564,33 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="27" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="G34" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="J34" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="H34" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="K34" s="116" t="s">
+      <c r="K34" s="119" t="s">
         <v>146</v>
       </c>
       <c r="L34" s="84"/>
@@ -9740,33 +9599,33 @@
     <row r="35" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="27" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D35" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>412</v>
-      </c>
       <c r="H35" s="27" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="K35" s="117"/>
+        <v>509</v>
+      </c>
+      <c r="K35" s="120"/>
       <c r="L35" s="84"/>
       <c r="M35" s="34"/>
     </row>
@@ -9788,33 +9647,33 @@
     <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="27" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D37" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="G37" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>412</v>
-      </c>
       <c r="H37" s="27" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="K37" s="101" t="s">
+        <v>509</v>
+      </c>
+      <c r="K37" s="98" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="84"/>
@@ -9823,33 +9682,33 @@
     <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="27" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="K38" s="102"/>
+        <v>510</v>
+      </c>
+      <c r="K38" s="99"/>
       <c r="L38" s="84"/>
       <c r="M38" s="34"/>
     </row>
@@ -9871,34 +9730,34 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="27" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="K40" s="116" t="s">
-        <v>461</v>
+        <v>510</v>
+      </c>
+      <c r="K40" s="119" t="s">
+        <v>445</v>
       </c>
       <c r="L40" s="84"/>
       <c r="M40" s="34"/>
@@ -9906,33 +9765,33 @@
     <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="27" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="K41" s="117"/>
+        <v>511</v>
+      </c>
+      <c r="K41" s="120"/>
       <c r="L41" s="84"/>
       <c r="M41" s="34"/>
     </row>
@@ -9954,34 +9813,34 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="K43" s="116" t="s">
-        <v>369</v>
+        <v>511</v>
+      </c>
+      <c r="K43" s="119" t="s">
+        <v>353</v>
       </c>
       <c r="L43" s="84"/>
       <c r="M43" s="34"/>
@@ -9989,33 +9848,33 @@
     <row r="44" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="K44" s="117"/>
+        <v>512</v>
+      </c>
+      <c r="K44" s="120"/>
       <c r="L44" s="84"/>
       <c r="M44" s="34"/>
     </row>
@@ -10037,34 +9896,34 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="K46" s="116" t="s">
-        <v>462</v>
+        <v>512</v>
+      </c>
+      <c r="K46" s="119" t="s">
+        <v>446</v>
       </c>
       <c r="L46" s="84"/>
       <c r="M46" s="34"/>
@@ -10072,33 +9931,33 @@
     <row r="47" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="F47" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="G47" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="G47" s="27" t="s">
-        <v>428</v>
-      </c>
       <c r="H47" s="27" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="K47" s="117"/>
+        <v>513</v>
+      </c>
+      <c r="K47" s="120"/>
       <c r="L47" s="84"/>
       <c r="M47" s="34"/>
     </row>
@@ -10120,34 +9979,34 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="F49" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="G49" s="27" t="s">
-        <v>428</v>
-      </c>
       <c r="H49" s="27" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="K49" s="97" t="s">
-        <v>463</v>
+        <v>513</v>
+      </c>
+      <c r="K49" s="100" t="s">
+        <v>447</v>
       </c>
       <c r="L49" s="84"/>
       <c r="M49" s="34"/>
@@ -10155,33 +10014,33 @@
     <row r="50" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="K50" s="98"/>
+        <v>514</v>
+      </c>
+      <c r="K50" s="101"/>
       <c r="L50" s="85"/>
       <c r="M50" s="34"/>
     </row>

--- a/assets/forms/final_schedule.xlsx
+++ b/assets/forms/final_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Documents/GitHub/honeybeehealth2021.github.io/assets/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AFAFC4-3F7D-7D40-AE7E-8C2EEB3EB6A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2ECE76-0A61-8040-A6E0-31E146B470F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="3" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1115,9 +1115,6 @@
     <t>Noureddine Adjlane</t>
   </si>
   <si>
-    <t>Daniel Bisrat</t>
-  </si>
-  <si>
     <t>Alireza Arab</t>
   </si>
   <si>
@@ -1605,6 +1602,9 @@
   </si>
   <si>
     <t>Wed 08:30</t>
+  </si>
+  <si>
+    <t>Chuleui Jung</t>
   </si>
 </sst>
 </file>
@@ -2181,6 +2181,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2193,15 +2238,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2217,21 +2253,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2241,27 +2262,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2325,6 +2325,12 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2355,10 +2361,10 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2374,12 +2380,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2729,14 +2729,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -2757,10 +2757,10 @@
       <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="55"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2808,10 +2808,10 @@
       <c r="F5" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2834,8 +2834,8 @@
       <c r="F6" s="10">
         <v>0.46527777777777773</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -2856,10 +2856,10 @@
       <c r="F7" s="10">
         <v>0.47222222222222227</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="63"/>
     </row>
     <row r="8" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -2880,8 +2880,8 @@
       <c r="F8" s="10">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="66" t="s">
+      <c r="H8" s="76"/>
+      <c r="I8" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2904,8 +2904,8 @@
       <c r="F9" s="10">
         <v>0.4861111111111111</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="67"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -2926,8 +2926,8 @@
       <c r="F10" s="10">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="68"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="63"/>
     </row>
     <row r="11" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -2948,10 +2948,10 @@
       <c r="F11" s="10">
         <v>0.5</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2974,8 +2974,8 @@
       <c r="F12" s="10">
         <v>0.50694444444444442</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -2996,8 +2996,8 @@
       <c r="F13" s="10">
         <v>0.51388888888888895</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
     </row>
     <row r="14" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -3018,10 +3018,10 @@
       <c r="F14" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="64" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3044,8 +3044,8 @@
       <c r="F15" s="10">
         <v>0.52777777777777779</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
@@ -3066,10 +3066,10 @@
       <c r="F16" s="10">
         <v>0.53472222222222221</v>
       </c>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3092,8 +3092,8 @@
       <c r="F17" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -3114,8 +3114,8 @@
       <c r="F18" s="10">
         <v>0.54861111111111105</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -3136,10 +3136,10 @@
       <c r="F19" s="10">
         <v>0.55555555555555558</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3162,8 +3162,8 @@
       <c r="F20" s="10">
         <v>0.5625</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
@@ -3184,8 +3184,8 @@
       <c r="F21" s="10">
         <v>0.56944444444444442</v>
       </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
     </row>
     <row r="22" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -3254,10 +3254,10 @@
       <c r="F25" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="58" t="s">
+      <c r="I25" s="54" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3280,8 +3280,8 @@
       <c r="F26" s="10">
         <v>0.65277777777777779</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="59"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -3302,8 +3302,8 @@
       <c r="F27" s="10">
         <v>0.65972222222222221</v>
       </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="59"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -3324,10 +3324,10 @@
       <c r="F28" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="59"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -3348,8 +3348,8 @@
       <c r="F29" s="10">
         <v>0.67361111111111116</v>
       </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="59"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -3370,8 +3370,8 @@
       <c r="F30" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="60"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -3392,10 +3392,10 @@
       <c r="F31" s="10">
         <v>0.6875</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="69" t="s">
+      <c r="I31" s="64" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3418,8 +3418,8 @@
       <c r="F32" s="10">
         <v>0.69444444444444453</v>
       </c>
-      <c r="H32" s="67"/>
-      <c r="I32" s="70"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
@@ -3440,8 +3440,8 @@
       <c r="F33" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="58" t="s">
+      <c r="H33" s="63"/>
+      <c r="I33" s="54" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3464,10 +3464,10 @@
       <c r="F34" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="59"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -3488,8 +3488,8 @@
       <c r="F35" s="10">
         <v>0.71527777777777779</v>
       </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="59"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="55"/>
     </row>
     <row r="36" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
@@ -3510,10 +3510,10 @@
       <c r="F36" s="10">
         <v>0.72222222222222221</v>
       </c>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="59"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -3534,8 +3534,8 @@
       <c r="F37" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H37" s="67"/>
-      <c r="I37" s="59"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -3556,8 +3556,8 @@
       <c r="F38" s="10">
         <v>0.73611111111111116</v>
       </c>
-      <c r="H38" s="68"/>
-      <c r="I38" s="59"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
@@ -3578,10 +3578,10 @@
       <c r="F39" s="10">
         <v>0.74305555555555547</v>
       </c>
-      <c r="H39" s="66" t="s">
+      <c r="H39" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="60"/>
+      <c r="I39" s="56"/>
     </row>
     <row r="40" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
@@ -3602,8 +3602,8 @@
       <c r="F40" s="10">
         <v>0.75</v>
       </c>
-      <c r="H40" s="67"/>
-      <c r="I40" s="71" t="s">
+      <c r="H40" s="62"/>
+      <c r="I40" s="78" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3626,8 +3626,8 @@
       <c r="F41" s="10">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H41" s="68"/>
-      <c r="I41" s="72"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="79"/>
     </row>
     <row r="42" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
@@ -3649,7 +3649,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="72"/>
+      <c r="I42" s="79"/>
     </row>
     <row r="43" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
@@ -3671,7 +3671,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="72"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
@@ -3693,7 +3693,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="72"/>
+      <c r="I44" s="79"/>
     </row>
     <row r="45" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
@@ -3715,7 +3715,7 @@
         <v>0.8125</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="73"/>
+      <c r="I45" s="80"/>
     </row>
     <row r="46" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
@@ -3736,14 +3736,14 @@
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -3764,11 +3764,11 @@
       <c r="F49" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="77" t="s">
+      <c r="H49" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="78"/>
-      <c r="J49" s="79"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="59"/>
     </row>
     <row r="50" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -3831,13 +3831,13 @@
       <c r="F52" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H52" s="56" t="s">
+      <c r="H52" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="58" t="s">
+      <c r="I52" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="58" t="s">
+      <c r="J52" s="54" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3860,9 +3860,9 @@
       <c r="F53" s="10">
         <v>0.86111111111111116</v>
       </c>
-      <c r="H53" s="57"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
     </row>
     <row r="54" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
@@ -3883,11 +3883,11 @@
       <c r="F54" s="10">
         <v>0.86805555555555547</v>
       </c>
-      <c r="H54" s="58" t="s">
+      <c r="H54" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
@@ -3910,11 +3910,11 @@
       <c r="F55" s="10">
         <v>0.875</v>
       </c>
-      <c r="H55" s="59"/>
-      <c r="I55" s="58" t="s">
+      <c r="H55" s="55"/>
+      <c r="I55" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="58" t="s">
+      <c r="J55" s="54" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3937,9 +3937,9 @@
       <c r="F56" s="10">
         <v>0.88194444444444453</v>
       </c>
-      <c r="H56" s="60"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
     </row>
     <row r="57" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
@@ -3960,11 +3960,11 @@
       <c r="F57" s="10">
         <v>0.88888888888888884</v>
       </c>
-      <c r="H57" s="58" t="s">
+      <c r="H57" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
     </row>
     <row r="58" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
@@ -3985,11 +3985,11 @@
       <c r="F58" s="10">
         <v>0.89583333333333337</v>
       </c>
-      <c r="H58" s="59"/>
-      <c r="I58" s="58" t="s">
+      <c r="H58" s="55"/>
+      <c r="I58" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J58" s="58" t="s">
+      <c r="J58" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4012,9 +4012,9 @@
       <c r="F59" s="10">
         <v>0.90277777777777779</v>
       </c>
-      <c r="H59" s="60"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
     </row>
     <row r="60" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
@@ -4035,11 +4035,11 @@
       <c r="F60" s="10">
         <v>0.90972222222222221</v>
       </c>
-      <c r="H60" s="69" t="s">
+      <c r="H60" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
       <c r="K60" s="6"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4064,11 +4064,11 @@
       <c r="F61" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="H61" s="70"/>
-      <c r="I61" s="69" t="s">
+      <c r="H61" s="65"/>
+      <c r="I61" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="69" t="s">
+      <c r="J61" s="64" t="s">
         <v>25</v>
       </c>
       <c r="K61" s="6"/>
@@ -4095,11 +4095,11 @@
       <c r="F62" s="10">
         <v>0.92361111111111116</v>
       </c>
-      <c r="H62" s="58" t="s">
+      <c r="H62" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4123,11 +4123,11 @@
       <c r="F63" s="10">
         <v>0.93055555555555547</v>
       </c>
-      <c r="H63" s="59"/>
-      <c r="I63" s="58" t="s">
+      <c r="H63" s="55"/>
+      <c r="I63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="58" t="s">
+      <c r="J63" s="54" t="s">
         <v>24</v>
       </c>
       <c r="K63" s="6"/>
@@ -4153,9 +4153,9 @@
       <c r="F64" s="10">
         <v>0.9375</v>
       </c>
-      <c r="H64" s="60"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4179,11 +4179,11 @@
       <c r="F65" s="10">
         <v>0.94444444444444453</v>
       </c>
-      <c r="H65" s="58" t="s">
+      <c r="H65" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="6"/>
       <c r="L65" s="1"/>
       <c r="M65" s="6"/>
@@ -4208,11 +4208,11 @@
       <c r="F66" s="10">
         <v>0.95138888888888884</v>
       </c>
-      <c r="H66" s="59"/>
-      <c r="I66" s="58" t="s">
+      <c r="H66" s="55"/>
+      <c r="I66" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="74" t="s">
+      <c r="J66" s="66" t="s">
         <v>42</v>
       </c>
       <c r="K66" s="6"/>
@@ -4239,9 +4239,9 @@
       <c r="F67" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="H67" s="60"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="75"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="67"/>
       <c r="K67" s="6"/>
       <c r="L67" s="3"/>
       <c r="M67" s="6"/>
@@ -4266,11 +4266,11 @@
       <c r="F68" s="10">
         <v>0.96527777777777779</v>
       </c>
-      <c r="H68" s="69" t="s">
+      <c r="H68" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="60"/>
-      <c r="J68" s="75"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="67"/>
       <c r="K68" s="6"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -4295,11 +4295,11 @@
       <c r="F69" s="10">
         <v>0.97222222222222221</v>
       </c>
-      <c r="H69" s="70"/>
-      <c r="I69" s="74" t="s">
+      <c r="H69" s="65"/>
+      <c r="I69" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="J69" s="76"/>
+      <c r="J69" s="68"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -4324,10 +4324,10 @@
       <c r="F70" s="10">
         <v>0.97916666666666663</v>
       </c>
-      <c r="H70" s="58" t="s">
+      <c r="H70" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="75"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="11" t="s">
         <v>32</v>
       </c>
@@ -4355,8 +4355,8 @@
       <c r="F71" s="10">
         <v>0.98611111111111116</v>
       </c>
-      <c r="H71" s="59"/>
-      <c r="I71" s="75"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="67"/>
       <c r="J71" s="12"/>
       <c r="K71" s="6"/>
       <c r="L71" s="3"/>
@@ -4382,8 +4382,8 @@
       <c r="F72" s="10">
         <v>0.99305555555555547</v>
       </c>
-      <c r="H72" s="60"/>
-      <c r="I72" s="76"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="68"/>
       <c r="J72" s="12"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -4510,6 +4510,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J61:J62"/>
     <mergeCell ref="J58:J60"/>
     <mergeCell ref="H70:H72"/>
     <mergeCell ref="I52:I54"/>
@@ -4526,37 +4557,6 @@
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I33:I39"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="I69:I72"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="I40:I45"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4721,11 +4721,11 @@
       <c r="J4" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="71" t="s">
         <v>149</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -4758,7 +4758,7 @@
       <c r="J5" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="57"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -5582,7 +5582,7 @@
         <v>154</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -6284,7 +6284,7 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6331,7 +6331,7 @@
         <v>61</v>
       </c>
       <c r="K1" s="86" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
@@ -6439,7 +6439,7 @@
         <v>222</v>
       </c>
       <c r="L4" s="95" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -6767,7 +6767,7 @@
         <v>268</v>
       </c>
       <c r="K16" s="96" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L16" s="95"/>
       <c r="M16" s="34"/>
@@ -6860,7 +6860,7 @@
         <v>230</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>233</v>
@@ -6881,7 +6881,7 @@
         <v>253</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K20" s="101"/>
       <c r="L20" s="95"/>
@@ -6907,7 +6907,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>233</v>
@@ -6928,7 +6928,7 @@
         <v>253</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K22" s="52" t="s">
         <v>32</v>
@@ -7023,7 +7023,7 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N51" sqref="A1:N51"/>
     </sheetView>
   </sheetViews>
@@ -7071,10 +7071,10 @@
       <c r="J1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="104" t="s">
-        <v>371</v>
-      </c>
-      <c r="L1" s="105"/>
+      <c r="K1" s="106" t="s">
+        <v>370</v>
+      </c>
+      <c r="L1" s="107"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
     </row>
@@ -7109,8 +7109,8 @@
       <c r="J2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="109"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
@@ -7145,18 +7145,18 @@
       <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="109"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>282</v>
@@ -7179,12 +7179,12 @@
       <c r="J4" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="112" t="s">
         <v>348</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="83" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N4" s="34"/>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="J5" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="K5" s="111"/>
+      <c r="K5" s="113"/>
       <c r="L5" s="37"/>
       <c r="M5" s="84"/>
       <c r="N5" s="34"/>
@@ -7267,7 +7267,7 @@
       <c r="J7" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="K7" s="110" t="s">
+      <c r="K7" s="112" t="s">
         <v>349</v>
       </c>
       <c r="L7" s="37"/>
@@ -7303,7 +7303,7 @@
       <c r="J8" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="K8" s="111"/>
+      <c r="K8" s="113"/>
       <c r="L8" s="37"/>
       <c r="M8" s="84"/>
       <c r="N8" s="53"/>
@@ -7353,7 +7353,7 @@
       <c r="J10" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="K10" s="102" t="s">
+      <c r="K10" s="104" t="s">
         <v>350</v>
       </c>
       <c r="L10" s="37"/>
@@ -7364,10 +7364,10 @@
     <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>300</v>
@@ -7390,7 +7390,7 @@
       <c r="J11" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="K11" s="103"/>
+      <c r="K11" s="105"/>
       <c r="L11" s="37"/>
       <c r="M11" s="84"/>
       <c r="N11" s="53"/>
@@ -7414,10 +7414,10 @@
     <row r="13" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>300</v>
@@ -7440,7 +7440,7 @@
       <c r="J13" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="K13" s="102" t="s">
+      <c r="K13" s="104" t="s">
         <v>351</v>
       </c>
       <c r="L13" s="37"/>
@@ -7450,10 +7450,10 @@
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>306</v>
@@ -7476,7 +7476,7 @@
       <c r="J14" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="K14" s="103"/>
+      <c r="K14" s="105"/>
       <c r="L14" s="37"/>
       <c r="M14" s="84"/>
       <c r="N14" s="34"/>
@@ -7500,10 +7500,10 @@
     <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>306</v>
@@ -7526,7 +7526,7 @@
       <c r="J16" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="K16" s="102" t="s">
+      <c r="K16" s="104" t="s">
         <v>353</v>
       </c>
       <c r="L16" s="37"/>
@@ -7539,7 +7539,7 @@
         <v>252</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>295</v>
@@ -7562,7 +7562,7 @@
       <c r="J17" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="K17" s="103"/>
+      <c r="K17" s="105"/>
       <c r="L17" s="37"/>
       <c r="M17" s="84"/>
       <c r="N17" s="34"/>
@@ -7589,7 +7589,7 @@
         <v>252</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>295</v>
@@ -7612,7 +7612,7 @@
       <c r="J19" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="K19" s="102" t="s">
+      <c r="K19" s="104" t="s">
         <v>352</v>
       </c>
       <c r="L19" s="37"/>
@@ -7646,9 +7646,9 @@
         <v>317</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="K20" s="103"/>
+        <v>470</v>
+      </c>
+      <c r="K20" s="105"/>
       <c r="L20" s="37"/>
       <c r="M20" s="84"/>
       <c r="N20" s="34"/>
@@ -7696,9 +7696,9 @@
         <v>317</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="K22" s="102" t="s">
+        <v>470</v>
+      </c>
+      <c r="K22" s="104" t="s">
         <v>354</v>
       </c>
       <c r="L22" s="37"/>
@@ -7708,10 +7708,10 @@
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>307</v>
@@ -7732,9 +7732,9 @@
         <v>320</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>472</v>
-      </c>
-      <c r="K23" s="103"/>
+        <v>471</v>
+      </c>
+      <c r="K23" s="105"/>
       <c r="L23" s="37"/>
       <c r="M23" s="84"/>
       <c r="N23" s="34"/>
@@ -7761,7 +7761,7 @@
         <v>259</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>321</v>
@@ -7784,11 +7784,11 @@
       <c r="J25" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="L25" s="112" t="s">
-        <v>362</v>
+      <c r="L25" s="102" t="s">
+        <v>361</v>
       </c>
       <c r="M25" s="84"/>
       <c r="N25" s="34"/>
@@ -7799,7 +7799,7 @@
         <v>268</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>324</v>
@@ -7822,8 +7822,8 @@
       <c r="J26" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="K26" s="103"/>
-      <c r="L26" s="113"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="103"/>
       <c r="M26" s="84"/>
       <c r="N26" s="34"/>
     </row>
@@ -7849,7 +7849,7 @@
         <v>268</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>324</v>
@@ -7872,11 +7872,11 @@
       <c r="J28" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="K28" s="102" t="s">
+      <c r="K28" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="L28" s="112" t="s">
-        <v>363</v>
+      <c r="L28" s="102" t="s">
+        <v>362</v>
       </c>
       <c r="M28" s="84"/>
       <c r="N28" s="34"/>
@@ -7884,7 +7884,7 @@
     <row r="29" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>282</v>
@@ -7910,8 +7910,8 @@
       <c r="J29" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="K29" s="103"/>
-      <c r="L29" s="113"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="103"/>
       <c r="M29" s="84"/>
       <c r="N29" s="34"/>
     </row>
@@ -7934,7 +7934,7 @@
     <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>282</v>
@@ -7960,11 +7960,11 @@
       <c r="J31" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="K31" s="102" t="s">
-        <v>515</v>
-      </c>
-      <c r="L31" s="112" t="s">
-        <v>364</v>
+      <c r="K31" s="104" t="s">
+        <v>514</v>
+      </c>
+      <c r="L31" s="102" t="s">
+        <v>363</v>
       </c>
       <c r="M31" s="84"/>
       <c r="N31" s="34"/>
@@ -7972,7 +7972,7 @@
     <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>288</v>
@@ -7998,8 +7998,8 @@
       <c r="J32" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="K32" s="103"/>
-      <c r="L32" s="113"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="103"/>
       <c r="M32" s="84"/>
       <c r="N32" s="34"/>
     </row>
@@ -8022,7 +8022,7 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>288</v>
@@ -8048,11 +8048,11 @@
       <c r="J34" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="K34" s="102" t="s">
-        <v>357</v>
-      </c>
-      <c r="L34" s="112" t="s">
-        <v>365</v>
+      <c r="K34" s="104" t="s">
+        <v>520</v>
+      </c>
+      <c r="L34" s="102" t="s">
+        <v>364</v>
       </c>
       <c r="M34" s="84"/>
       <c r="N34" s="34"/>
@@ -8063,7 +8063,7 @@
         <v>278</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>303</v>
@@ -8084,10 +8084,10 @@
         <v>333</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="K35" s="103"/>
-      <c r="L35" s="113"/>
+        <v>472</v>
+      </c>
+      <c r="K35" s="105"/>
+      <c r="L35" s="103"/>
       <c r="M35" s="84"/>
       <c r="N35" s="34"/>
     </row>
@@ -8113,7 +8113,7 @@
         <v>278</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>303</v>
@@ -8134,7 +8134,7 @@
         <v>333</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K37" s="91" t="s">
         <v>25</v>
@@ -8148,7 +8148,7 @@
     <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>283</v>
@@ -8172,7 +8172,7 @@
         <v>335</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K38" s="92"/>
       <c r="L38" s="99"/>
@@ -8198,7 +8198,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>283</v>
@@ -8222,13 +8222,13 @@
         <v>335</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="K40" s="102" t="s">
-        <v>358</v>
-      </c>
-      <c r="L40" s="112" t="s">
-        <v>366</v>
+        <v>473</v>
+      </c>
+      <c r="K40" s="104" t="s">
+        <v>357</v>
+      </c>
+      <c r="L40" s="102" t="s">
+        <v>365</v>
       </c>
       <c r="M40" s="84"/>
       <c r="N40" s="34"/>
@@ -8260,10 +8260,10 @@
         <v>338</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="K41" s="103"/>
-      <c r="L41" s="113"/>
+        <v>474</v>
+      </c>
+      <c r="K41" s="105"/>
+      <c r="L41" s="103"/>
       <c r="M41" s="84"/>
       <c r="N41" s="34"/>
     </row>
@@ -8310,13 +8310,13 @@
         <v>338</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="K43" s="102" t="s">
-        <v>359</v>
-      </c>
-      <c r="L43" s="112" t="s">
-        <v>367</v>
+        <v>474</v>
+      </c>
+      <c r="K43" s="104" t="s">
+        <v>358</v>
+      </c>
+      <c r="L43" s="102" t="s">
+        <v>366</v>
       </c>
       <c r="M43" s="84"/>
       <c r="N43" s="34"/>
@@ -8324,10 +8324,10 @@
     <row r="44" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>316</v>
@@ -8348,10 +8348,10 @@
         <v>341</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="K44" s="103"/>
-      <c r="L44" s="113"/>
+        <v>475</v>
+      </c>
+      <c r="K44" s="105"/>
+      <c r="L44" s="103"/>
       <c r="M44" s="84"/>
       <c r="N44" s="34"/>
     </row>
@@ -8374,10 +8374,10 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>316</v>
@@ -8398,13 +8398,13 @@
         <v>341</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="K46" s="102" t="s">
-        <v>360</v>
-      </c>
-      <c r="L46" s="112" t="s">
-        <v>368</v>
+        <v>475</v>
+      </c>
+      <c r="K46" s="104" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" s="102" t="s">
+        <v>367</v>
       </c>
       <c r="M46" s="84"/>
       <c r="N46" s="34"/>
@@ -8412,10 +8412,10 @@
     <row r="47" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>286</v>
@@ -8436,10 +8436,10 @@
         <v>344</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="K47" s="103"/>
-      <c r="L47" s="113"/>
+        <v>476</v>
+      </c>
+      <c r="K47" s="105"/>
+      <c r="L47" s="103"/>
       <c r="M47" s="84"/>
       <c r="N47" s="34"/>
     </row>
@@ -8462,10 +8462,10 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>286</v>
@@ -8486,13 +8486,13 @@
         <v>344</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="K49" s="102" t="s">
-        <v>361</v>
-      </c>
-      <c r="L49" s="112" t="s">
-        <v>369</v>
+        <v>476</v>
+      </c>
+      <c r="K49" s="104" t="s">
+        <v>360</v>
+      </c>
+      <c r="L49" s="102" t="s">
+        <v>368</v>
       </c>
       <c r="M49" s="84"/>
       <c r="N49" s="34"/>
@@ -8500,10 +8500,10 @@
     <row r="50" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>292</v>
@@ -8524,10 +8524,10 @@
         <v>347</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="K50" s="103"/>
-      <c r="L50" s="113"/>
+        <v>477</v>
+      </c>
+      <c r="K50" s="105"/>
+      <c r="L50" s="103"/>
       <c r="M50" s="85"/>
       <c r="N50" s="34"/>
     </row>
@@ -8565,6 +8565,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K25:K26"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="M4:M50"/>
     <mergeCell ref="K46:K47"/>
@@ -8581,20 +8592,9 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K25:K26"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="93" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8653,8 +8653,8 @@
       <c r="J1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="114" t="s">
-        <v>370</v>
+      <c r="K1" s="116" t="s">
+        <v>369</v>
       </c>
       <c r="L1" s="34"/>
     </row>
@@ -8689,7 +8689,7 @@
       <c r="J2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="115"/>
+      <c r="K2" s="117"/>
       <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8723,77 +8723,77 @@
       <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="116"/>
+      <c r="K3" s="118"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="G4" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>377</v>
-      </c>
       <c r="J4" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="K4" s="117" t="s">
+        <v>427</v>
+      </c>
+      <c r="K4" s="119" t="s">
         <v>348</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>382</v>
-      </c>
       <c r="J5" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="K5" s="118"/>
+        <v>406</v>
+      </c>
+      <c r="K5" s="120"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -8815,34 +8815,34 @@
     <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>382</v>
-      </c>
       <c r="J7" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="K7" s="112" t="s">
-        <v>439</v>
+        <v>406</v>
+      </c>
+      <c r="K7" s="102" t="s">
+        <v>438</v>
       </c>
       <c r="L7" s="84"/>
       <c r="M7" s="34"/>
@@ -8850,33 +8850,33 @@
     <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>387</v>
-      </c>
       <c r="J8" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="K8" s="113"/>
+        <v>409</v>
+      </c>
+      <c r="K8" s="103"/>
       <c r="L8" s="84"/>
       <c r="M8" s="34"/>
     </row>
@@ -8898,34 +8898,34 @@
     <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>387</v>
-      </c>
       <c r="J10" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="K10" s="112" t="s">
-        <v>440</v>
+        <v>409</v>
+      </c>
+      <c r="K10" s="102" t="s">
+        <v>439</v>
       </c>
       <c r="L10" s="84"/>
       <c r="M10" s="34"/>
@@ -8933,33 +8933,33 @@
     <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="F11" s="27" t="s">
+      <c r="G11" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>392</v>
-      </c>
       <c r="J11" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="K11" s="113"/>
+        <v>413</v>
+      </c>
+      <c r="K11" s="103"/>
       <c r="L11" s="84"/>
       <c r="M11" s="34"/>
     </row>
@@ -8981,34 +8981,34 @@
     <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="F13" s="27" t="s">
+      <c r="G13" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="H13" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>392</v>
-      </c>
       <c r="J13" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="K13" s="112" t="s">
-        <v>441</v>
+        <v>413</v>
+      </c>
+      <c r="K13" s="102" t="s">
+        <v>440</v>
       </c>
       <c r="L13" s="84"/>
       <c r="M13" s="34"/>
@@ -9016,33 +9016,33 @@
     <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="G14" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="H14" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>396</v>
-      </c>
       <c r="J14" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="K14" s="113"/>
+        <v>421</v>
+      </c>
+      <c r="K14" s="103"/>
       <c r="L14" s="84"/>
       <c r="M14" s="34"/>
     </row>
@@ -9064,31 +9064,31 @@
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D16" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>396</v>
-      </c>
       <c r="J16" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K16" s="98" t="s">
         <v>25</v>
@@ -9099,31 +9099,31 @@
     <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="G17" s="27" t="s">
+      <c r="H17" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="I17" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>399</v>
-      </c>
       <c r="J17" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K17" s="99"/>
       <c r="L17" s="84"/>
@@ -9147,34 +9147,34 @@
     <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="G19" s="27" t="s">
+      <c r="H19" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="H19" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>399</v>
-      </c>
       <c r="J19" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="K19" s="112" t="s">
-        <v>442</v>
+        <v>505</v>
+      </c>
+      <c r="K19" s="102" t="s">
+        <v>441</v>
       </c>
       <c r="L19" s="84"/>
       <c r="M19" s="34"/>
@@ -9182,33 +9182,33 @@
     <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D20" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="G20" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="H20" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="I20" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>403</v>
-      </c>
       <c r="J20" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="K20" s="113"/>
+        <v>414</v>
+      </c>
+      <c r="K20" s="103"/>
       <c r="L20" s="84"/>
       <c r="M20" s="34"/>
     </row>
@@ -9230,34 +9230,34 @@
     <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="F22" s="27" t="s">
+      <c r="G22" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="H22" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>403</v>
-      </c>
       <c r="J22" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="K22" s="112" t="s">
-        <v>443</v>
+        <v>414</v>
+      </c>
+      <c r="K22" s="102" t="s">
+        <v>442</v>
       </c>
       <c r="L22" s="84"/>
       <c r="M22" s="34"/>
@@ -9265,33 +9265,33 @@
     <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F23" s="27" t="s">
+      <c r="G23" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="H23" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>407</v>
-      </c>
       <c r="J23" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="K23" s="113"/>
+        <v>422</v>
+      </c>
+      <c r="K23" s="103"/>
       <c r="L23" s="84"/>
       <c r="M23" s="34"/>
     </row>
@@ -9313,34 +9313,34 @@
     <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F25" s="27" t="s">
+      <c r="G25" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="H25" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="I25" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>407</v>
-      </c>
       <c r="J25" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="K25" s="112" t="s">
-        <v>444</v>
+        <v>422</v>
+      </c>
+      <c r="K25" s="102" t="s">
+        <v>443</v>
       </c>
       <c r="L25" s="84"/>
       <c r="M25" s="34"/>
@@ -9348,33 +9348,33 @@
     <row r="26" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="G26" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="H26" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>410</v>
-      </c>
       <c r="J26" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="K26" s="113"/>
+        <v>428</v>
+      </c>
+      <c r="K26" s="103"/>
       <c r="L26" s="85"/>
       <c r="M26" s="34"/>
     </row>
@@ -9396,70 +9396,70 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D28" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="I28" s="26" t="s">
-        <v>413</v>
-      </c>
       <c r="J28" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="K28" s="119" t="s">
-        <v>517</v>
+        <v>506</v>
+      </c>
+      <c r="K28" s="114" t="s">
+        <v>516</v>
       </c>
       <c r="L28" s="83" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D29" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="F29" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="F29" s="27" t="s">
+      <c r="G29" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="H29" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="I29" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="I29" s="26" t="s">
-        <v>420</v>
-      </c>
       <c r="J29" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="K29" s="120"/>
+        <v>507</v>
+      </c>
+      <c r="K29" s="115"/>
       <c r="L29" s="84"/>
       <c r="M29" s="34"/>
     </row>
@@ -9481,34 +9481,34 @@
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D31" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="F31" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="F31" s="27" t="s">
+      <c r="G31" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="H31" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="I31" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>420</v>
-      </c>
       <c r="J31" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="K31" s="119" t="s">
-        <v>518</v>
+        <v>507</v>
+      </c>
+      <c r="K31" s="114" t="s">
+        <v>517</v>
       </c>
       <c r="L31" s="84"/>
       <c r="M31" s="34"/>
@@ -9516,33 +9516,33 @@
     <row r="32" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G32" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="H32" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="I32" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="I32" s="26" t="s">
-        <v>423</v>
-      </c>
       <c r="J32" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="K32" s="120"/>
+        <v>436</v>
+      </c>
+      <c r="K32" s="115"/>
       <c r="L32" s="84"/>
       <c r="M32" s="34"/>
     </row>
@@ -9564,33 +9564,33 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G34" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="H34" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>423</v>
-      </c>
       <c r="J34" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="K34" s="119" t="s">
+        <v>436</v>
+      </c>
+      <c r="K34" s="114" t="s">
         <v>146</v>
       </c>
       <c r="L34" s="84"/>
@@ -9599,33 +9599,33 @@
     <row r="35" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F35" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>425</v>
-      </c>
       <c r="J35" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="K35" s="120"/>
+        <v>508</v>
+      </c>
+      <c r="K35" s="115"/>
       <c r="L35" s="84"/>
       <c r="M35" s="34"/>
     </row>
@@ -9647,31 +9647,31 @@
     <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F37" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I37" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>425</v>
-      </c>
       <c r="J37" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K37" s="98" t="s">
         <v>25</v>
@@ -9682,31 +9682,31 @@
     <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E38" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="F38" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="F38" s="27" t="s">
-        <v>377</v>
-      </c>
       <c r="G38" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H38" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="I38" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="I38" s="26" t="s">
-        <v>427</v>
-      </c>
       <c r="J38" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K38" s="99"/>
       <c r="L38" s="84"/>
@@ -9730,34 +9730,34 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E40" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="F40" s="27" t="s">
-        <v>377</v>
-      </c>
       <c r="G40" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H40" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="I40" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="I40" s="26" t="s">
-        <v>427</v>
-      </c>
       <c r="J40" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="K40" s="119" t="s">
-        <v>445</v>
+        <v>509</v>
+      </c>
+      <c r="K40" s="114" t="s">
+        <v>444</v>
       </c>
       <c r="L40" s="84"/>
       <c r="M40" s="34"/>
@@ -9765,33 +9765,33 @@
     <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E41" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="F41" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="F41" s="27" t="s">
-        <v>387</v>
-      </c>
       <c r="G41" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="H41" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="I41" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="I41" s="26" t="s">
-        <v>430</v>
-      </c>
       <c r="J41" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="K41" s="120"/>
+        <v>510</v>
+      </c>
+      <c r="K41" s="115"/>
       <c r="L41" s="84"/>
       <c r="M41" s="34"/>
     </row>
@@ -9813,33 +9813,33 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E43" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="F43" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="F43" s="27" t="s">
-        <v>387</v>
-      </c>
       <c r="G43" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="H43" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="I43" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="I43" s="26" t="s">
-        <v>430</v>
-      </c>
       <c r="J43" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="K43" s="119" t="s">
+        <v>510</v>
+      </c>
+      <c r="K43" s="114" t="s">
         <v>353</v>
       </c>
       <c r="L43" s="84"/>
@@ -9848,33 +9848,33 @@
     <row r="44" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D44" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="G44" s="27" t="s">
+      <c r="H44" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="I44" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="I44" s="26" t="s">
-        <v>434</v>
-      </c>
       <c r="J44" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="K44" s="120"/>
+        <v>511</v>
+      </c>
+      <c r="K44" s="115"/>
       <c r="L44" s="84"/>
       <c r="M44" s="34"/>
     </row>
@@ -9896,34 +9896,34 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D46" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="G46" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="G46" s="27" t="s">
+      <c r="H46" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="I46" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="I46" s="26" t="s">
-        <v>434</v>
-      </c>
       <c r="J46" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="K46" s="119" t="s">
-        <v>446</v>
+        <v>511</v>
+      </c>
+      <c r="K46" s="114" t="s">
+        <v>445</v>
       </c>
       <c r="L46" s="84"/>
       <c r="M46" s="34"/>
@@ -9931,33 +9931,33 @@
     <row r="47" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D47" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="H47" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="H47" s="27" t="s">
+      <c r="I47" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="I47" s="26" t="s">
-        <v>437</v>
-      </c>
       <c r="J47" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="K47" s="120"/>
+        <v>512</v>
+      </c>
+      <c r="K47" s="115"/>
       <c r="L47" s="84"/>
       <c r="M47" s="34"/>
     </row>
@@ -9979,34 +9979,34 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D49" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="H49" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="H49" s="27" t="s">
+      <c r="I49" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="I49" s="26" t="s">
-        <v>437</v>
-      </c>
       <c r="J49" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K49" s="100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L49" s="84"/>
       <c r="M49" s="34"/>
@@ -10014,31 +10014,31 @@
     <row r="50" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H50" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="I50" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="I50" s="26" t="s">
-        <v>438</v>
-      </c>
       <c r="J50" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K50" s="101"/>
       <c r="L50" s="85"/>
@@ -10076,6 +10076,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="K49:K50"/>
     <mergeCell ref="L28:L50"/>
     <mergeCell ref="L4:L26"/>
@@ -10090,11 +10095,6 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/assets/forms/final_schedule.xlsx
+++ b/assets/forms/final_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Documents/GitHub/honeybeehealth2021.github.io/assets/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2ECE76-0A61-8040-A6E0-31E146B470F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88E3742-8F0E-454A-B060-F4D15DE12AF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="528">
   <si>
     <t>Monday 22 March</t>
   </si>
@@ -1334,24 +1334,9 @@
     <t>Fri 15:20</t>
   </si>
   <si>
-    <t>Fri 07:40</t>
-  </si>
-  <si>
-    <t>Fri 12:10</t>
-  </si>
-  <si>
-    <t>Fri 14:40</t>
-  </si>
-  <si>
-    <t>Fri 15:40</t>
-  </si>
-  <si>
     <t>Fri 08:00</t>
   </si>
   <si>
-    <t>Fri 15:00</t>
-  </si>
-  <si>
     <t>Fri 16:00</t>
   </si>
   <si>
@@ -1511,12 +1496,6 @@
     <t>Thu 23:20</t>
   </si>
   <si>
-    <t>Thu 23:40</t>
-  </si>
-  <si>
-    <t>Fri 00:00</t>
-  </si>
-  <si>
     <t>Fri 01:00</t>
   </si>
   <si>
@@ -1577,12 +1556,6 @@
     <t>Fri 17:20</t>
   </si>
   <si>
-    <t>Fri 17:40</t>
-  </si>
-  <si>
-    <t>Fri 18:00</t>
-  </si>
-  <si>
     <t>Fri 19:00</t>
   </si>
   <si>
@@ -1605,6 +1578,54 @@
   </si>
   <si>
     <t>Chuleui Jung</t>
+  </si>
+  <si>
+    <t>Vienna Kowallik</t>
+  </si>
+  <si>
+    <t>Fri 17:30</t>
+  </si>
+  <si>
+    <t>Fri 02:30</t>
+  </si>
+  <si>
+    <t>Thu 23:30</t>
+  </si>
+  <si>
+    <t>Fri 15:50</t>
+  </si>
+  <si>
+    <t>Fri 17:50</t>
+  </si>
+  <si>
+    <t>Fri 10:50</t>
+  </si>
+  <si>
+    <t>Fri 02:50</t>
+  </si>
+  <si>
+    <t>Thu 23:50</t>
+  </si>
+  <si>
+    <t>Fri 00:10</t>
+  </si>
+  <si>
+    <t>Fri 03:10</t>
+  </si>
+  <si>
+    <t>Fri 10:10</t>
+  </si>
+  <si>
+    <t>Fri 11:10</t>
+  </si>
+  <si>
+    <t>Fri 15:10</t>
+  </si>
+  <si>
+    <t>Fri 16:10</t>
+  </si>
+  <si>
+    <t>Fri 18:10</t>
   </si>
 </sst>
 </file>
@@ -2181,6 +2202,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2190,6 +2223,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2202,66 +2283,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2325,61 +2346,61 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2729,14 +2750,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -2757,10 +2778,10 @@
       <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="70"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2808,10 +2829,10 @@
       <c r="F5" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2834,8 +2855,8 @@
       <c r="F6" s="10">
         <v>0.46527777777777773</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -2856,10 +2877,10 @@
       <c r="F7" s="10">
         <v>0.47222222222222227</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -2880,8 +2901,8 @@
       <c r="F8" s="10">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="61" t="s">
+      <c r="H8" s="64"/>
+      <c r="I8" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2904,8 +2925,8 @@
       <c r="F9" s="10">
         <v>0.4861111111111111</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="62"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -2926,8 +2947,8 @@
       <c r="F10" s="10">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="63"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -2948,10 +2969,10 @@
       <c r="F11" s="10">
         <v>0.5</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2974,8 +2995,8 @@
       <c r="F12" s="10">
         <v>0.50694444444444442</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -2996,8 +3017,8 @@
       <c r="F13" s="10">
         <v>0.51388888888888895</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -3018,10 +3039,10 @@
       <c r="F14" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="69" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3044,8 +3065,8 @@
       <c r="F15" s="10">
         <v>0.52777777777777779</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
@@ -3066,10 +3087,10 @@
       <c r="F16" s="10">
         <v>0.53472222222222221</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3092,8 +3113,8 @@
       <c r="F17" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -3114,8 +3135,8 @@
       <c r="F18" s="10">
         <v>0.54861111111111105</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -3136,10 +3157,10 @@
       <c r="F19" s="10">
         <v>0.55555555555555558</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="61" t="s">
+      <c r="I19" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3162,8 +3183,8 @@
       <c r="F20" s="10">
         <v>0.5625</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
@@ -3184,8 +3205,8 @@
       <c r="F21" s="10">
         <v>0.56944444444444442</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -3254,10 +3275,10 @@
       <c r="F25" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="54" t="s">
+      <c r="I25" s="58" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3280,8 +3301,8 @@
       <c r="F26" s="10">
         <v>0.65277777777777779</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="55"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -3302,8 +3323,8 @@
       <c r="F27" s="10">
         <v>0.65972222222222221</v>
       </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="55"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -3324,10 +3345,10 @@
       <c r="F28" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="55"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -3348,8 +3369,8 @@
       <c r="F29" s="10">
         <v>0.67361111111111116</v>
       </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="55"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -3370,8 +3391,8 @@
       <c r="F30" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H30" s="63"/>
-      <c r="I30" s="56"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -3392,10 +3413,10 @@
       <c r="F31" s="10">
         <v>0.6875</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="64" t="s">
+      <c r="I31" s="69" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3418,8 +3439,8 @@
       <c r="F32" s="10">
         <v>0.69444444444444453</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="65"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="70"/>
     </row>
     <row r="33" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
@@ -3440,8 +3461,8 @@
       <c r="F33" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="H33" s="63"/>
-      <c r="I33" s="54" t="s">
+      <c r="H33" s="68"/>
+      <c r="I33" s="58" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3464,10 +3485,10 @@
       <c r="F34" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="55"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -3488,8 +3509,8 @@
       <c r="F35" s="10">
         <v>0.71527777777777779</v>
       </c>
-      <c r="H35" s="65"/>
-      <c r="I35" s="55"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
@@ -3510,10 +3531,10 @@
       <c r="F36" s="10">
         <v>0.72222222222222221</v>
       </c>
-      <c r="H36" s="61" t="s">
+      <c r="H36" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="55"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -3534,8 +3555,8 @@
       <c r="F37" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="55"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -3556,8 +3577,8 @@
       <c r="F38" s="10">
         <v>0.73611111111111116</v>
       </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="55"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
@@ -3578,10 +3599,10 @@
       <c r="F39" s="10">
         <v>0.74305555555555547</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="H39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="56"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
@@ -3602,8 +3623,8 @@
       <c r="F40" s="10">
         <v>0.75</v>
       </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="78" t="s">
+      <c r="H40" s="67"/>
+      <c r="I40" s="71" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3626,8 +3647,8 @@
       <c r="F41" s="10">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="79"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="72"/>
     </row>
     <row r="42" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
@@ -3649,7 +3670,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="79"/>
+      <c r="I42" s="72"/>
     </row>
     <row r="43" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
@@ -3671,7 +3692,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="79"/>
+      <c r="I43" s="72"/>
     </row>
     <row r="44" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
@@ -3693,7 +3714,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="79"/>
+      <c r="I44" s="72"/>
     </row>
     <row r="45" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
@@ -3715,7 +3736,7 @@
         <v>0.8125</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="80"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
@@ -3736,14 +3757,14 @@
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
     </row>
     <row r="49" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -3764,11 +3785,11 @@
       <c r="F49" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="57" t="s">
+      <c r="H49" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="58"/>
-      <c r="J49" s="59"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="79"/>
     </row>
     <row r="50" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -3831,13 +3852,13 @@
       <c r="F52" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="54" t="s">
+      <c r="I52" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="54" t="s">
+      <c r="J52" s="58" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3860,9 +3881,9 @@
       <c r="F53" s="10">
         <v>0.86111111111111116</v>
       </c>
-      <c r="H53" s="72"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
@@ -3883,11 +3904,11 @@
       <c r="F54" s="10">
         <v>0.86805555555555547</v>
       </c>
-      <c r="H54" s="54" t="s">
+      <c r="H54" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
@@ -3910,11 +3931,11 @@
       <c r="F55" s="10">
         <v>0.875</v>
       </c>
-      <c r="H55" s="55"/>
-      <c r="I55" s="54" t="s">
+      <c r="H55" s="59"/>
+      <c r="I55" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="54" t="s">
+      <c r="J55" s="58" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3937,9 +3958,9 @@
       <c r="F56" s="10">
         <v>0.88194444444444453</v>
       </c>
-      <c r="H56" s="56"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
     </row>
     <row r="57" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
@@ -3960,11 +3981,11 @@
       <c r="F57" s="10">
         <v>0.88888888888888884</v>
       </c>
-      <c r="H57" s="54" t="s">
+      <c r="H57" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
     </row>
     <row r="58" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
@@ -3985,11 +4006,11 @@
       <c r="F58" s="10">
         <v>0.89583333333333337</v>
       </c>
-      <c r="H58" s="55"/>
-      <c r="I58" s="54" t="s">
+      <c r="H58" s="59"/>
+      <c r="I58" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J58" s="54" t="s">
+      <c r="J58" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4012,9 +4033,9 @@
       <c r="F59" s="10">
         <v>0.90277777777777779</v>
       </c>
-      <c r="H59" s="56"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
     </row>
     <row r="60" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
@@ -4035,11 +4056,11 @@
       <c r="F60" s="10">
         <v>0.90972222222222221</v>
       </c>
-      <c r="H60" s="64" t="s">
+      <c r="H60" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
       <c r="K60" s="6"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4064,11 +4085,11 @@
       <c r="F61" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="H61" s="65"/>
-      <c r="I61" s="64" t="s">
+      <c r="H61" s="70"/>
+      <c r="I61" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="64" t="s">
+      <c r="J61" s="69" t="s">
         <v>25</v>
       </c>
       <c r="K61" s="6"/>
@@ -4095,11 +4116,11 @@
       <c r="F62" s="10">
         <v>0.92361111111111116</v>
       </c>
-      <c r="H62" s="54" t="s">
+      <c r="H62" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4123,11 +4144,11 @@
       <c r="F63" s="10">
         <v>0.93055555555555547</v>
       </c>
-      <c r="H63" s="55"/>
-      <c r="I63" s="54" t="s">
+      <c r="H63" s="59"/>
+      <c r="I63" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="54" t="s">
+      <c r="J63" s="58" t="s">
         <v>24</v>
       </c>
       <c r="K63" s="6"/>
@@ -4153,9 +4174,9 @@
       <c r="F64" s="10">
         <v>0.9375</v>
       </c>
-      <c r="H64" s="56"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
       <c r="K64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4179,11 +4200,11 @@
       <c r="F65" s="10">
         <v>0.94444444444444453</v>
       </c>
-      <c r="H65" s="54" t="s">
+      <c r="H65" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
       <c r="K65" s="6"/>
       <c r="L65" s="1"/>
       <c r="M65" s="6"/>
@@ -4208,11 +4229,11 @@
       <c r="F66" s="10">
         <v>0.95138888888888884</v>
       </c>
-      <c r="H66" s="55"/>
-      <c r="I66" s="54" t="s">
+      <c r="H66" s="59"/>
+      <c r="I66" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="66" t="s">
+      <c r="J66" s="74" t="s">
         <v>42</v>
       </c>
       <c r="K66" s="6"/>
@@ -4239,9 +4260,9 @@
       <c r="F67" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="H67" s="56"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="67"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="75"/>
       <c r="K67" s="6"/>
       <c r="L67" s="3"/>
       <c r="M67" s="6"/>
@@ -4266,11 +4287,11 @@
       <c r="F68" s="10">
         <v>0.96527777777777779</v>
       </c>
-      <c r="H68" s="64" t="s">
+      <c r="H68" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="67"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="75"/>
       <c r="K68" s="6"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -4295,11 +4316,11 @@
       <c r="F69" s="10">
         <v>0.97222222222222221</v>
       </c>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66" t="s">
+      <c r="H69" s="70"/>
+      <c r="I69" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="J69" s="68"/>
+      <c r="J69" s="76"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -4324,10 +4345,10 @@
       <c r="F70" s="10">
         <v>0.97916666666666663</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H70" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="67"/>
+      <c r="I70" s="75"/>
       <c r="J70" s="11" t="s">
         <v>32</v>
       </c>
@@ -4355,8 +4376,8 @@
       <c r="F71" s="10">
         <v>0.98611111111111116</v>
       </c>
-      <c r="H71" s="55"/>
-      <c r="I71" s="67"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="75"/>
       <c r="J71" s="12"/>
       <c r="K71" s="6"/>
       <c r="L71" s="3"/>
@@ -4382,8 +4403,8 @@
       <c r="F72" s="10">
         <v>0.99305555555555547</v>
       </c>
-      <c r="H72" s="56"/>
-      <c r="I72" s="68"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="76"/>
       <c r="J72" s="12"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -4510,21 +4531,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I39"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="H62:H64"/>
     <mergeCell ref="H65:H67"/>
@@ -4541,22 +4563,21 @@
     <mergeCell ref="I69:I72"/>
     <mergeCell ref="J63:J65"/>
     <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="I40:I45"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4721,11 +4742,11 @@
       <c r="J4" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="56" t="s">
         <v>149</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -4758,7 +4779,7 @@
       <c r="J5" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -5582,7 +5603,7 @@
         <v>154</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -6439,7 +6460,7 @@
         <v>222</v>
       </c>
       <c r="L4" s="95" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -6767,7 +6788,7 @@
         <v>268</v>
       </c>
       <c r="K16" s="96" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L16" s="95"/>
       <c r="M16" s="34"/>
@@ -6860,7 +6881,7 @@
         <v>230</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>233</v>
@@ -6881,7 +6902,7 @@
         <v>253</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="K20" s="101"/>
       <c r="L20" s="95"/>
@@ -6907,7 +6928,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>233</v>
@@ -6928,7 +6949,7 @@
         <v>253</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="K22" s="52" t="s">
         <v>32</v>
@@ -7023,7 +7044,7 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N51" sqref="A1:N51"/>
     </sheetView>
   </sheetViews>
@@ -7071,10 +7092,10 @@
       <c r="J1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="L1" s="107"/>
+      <c r="L1" s="105"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
     </row>
@@ -7109,8 +7130,8 @@
       <c r="J2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="109"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
@@ -7145,18 +7166,18 @@
       <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="109"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="27" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>282</v>
@@ -7179,12 +7200,12 @@
       <c r="J4" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="K4" s="112" t="s">
+      <c r="K4" s="110" t="s">
         <v>348</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="83" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="N4" s="34"/>
     </row>
@@ -7217,7 +7238,7 @@
       <c r="J5" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="K5" s="113"/>
+      <c r="K5" s="111"/>
       <c r="L5" s="37"/>
       <c r="M5" s="84"/>
       <c r="N5" s="34"/>
@@ -7267,7 +7288,7 @@
       <c r="J7" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="K7" s="112" t="s">
+      <c r="K7" s="110" t="s">
         <v>349</v>
       </c>
       <c r="L7" s="37"/>
@@ -7303,7 +7324,7 @@
       <c r="J8" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="K8" s="113"/>
+      <c r="K8" s="111"/>
       <c r="L8" s="37"/>
       <c r="M8" s="84"/>
       <c r="N8" s="53"/>
@@ -7353,7 +7374,7 @@
       <c r="J10" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="K10" s="104" t="s">
+      <c r="K10" s="102" t="s">
         <v>350</v>
       </c>
       <c r="L10" s="37"/>
@@ -7364,10 +7385,10 @@
     <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="27" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>300</v>
@@ -7390,7 +7411,7 @@
       <c r="J11" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="K11" s="105"/>
+      <c r="K11" s="103"/>
       <c r="L11" s="37"/>
       <c r="M11" s="84"/>
       <c r="N11" s="53"/>
@@ -7414,10 +7435,10 @@
     <row r="13" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="27" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>300</v>
@@ -7440,7 +7461,7 @@
       <c r="J13" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="102" t="s">
         <v>351</v>
       </c>
       <c r="L13" s="37"/>
@@ -7450,10 +7471,10 @@
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="27" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>306</v>
@@ -7476,7 +7497,7 @@
       <c r="J14" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="K14" s="105"/>
+      <c r="K14" s="103"/>
       <c r="L14" s="37"/>
       <c r="M14" s="84"/>
       <c r="N14" s="34"/>
@@ -7500,10 +7521,10 @@
     <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="27" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>306</v>
@@ -7526,7 +7547,7 @@
       <c r="J16" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="K16" s="104" t="s">
+      <c r="K16" s="102" t="s">
         <v>353</v>
       </c>
       <c r="L16" s="37"/>
@@ -7539,7 +7560,7 @@
         <v>252</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>295</v>
@@ -7562,7 +7583,7 @@
       <c r="J17" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="K17" s="105"/>
+      <c r="K17" s="103"/>
       <c r="L17" s="37"/>
       <c r="M17" s="84"/>
       <c r="N17" s="34"/>
@@ -7589,7 +7610,7 @@
         <v>252</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>295</v>
@@ -7612,7 +7633,7 @@
       <c r="J19" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="K19" s="104" t="s">
+      <c r="K19" s="102" t="s">
         <v>352</v>
       </c>
       <c r="L19" s="37"/>
@@ -7646,9 +7667,9 @@
         <v>317</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="K20" s="105"/>
+        <v>465</v>
+      </c>
+      <c r="K20" s="103"/>
       <c r="L20" s="37"/>
       <c r="M20" s="84"/>
       <c r="N20" s="34"/>
@@ -7696,9 +7717,9 @@
         <v>317</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="K22" s="104" t="s">
+        <v>465</v>
+      </c>
+      <c r="K22" s="102" t="s">
         <v>354</v>
       </c>
       <c r="L22" s="37"/>
@@ -7708,10 +7729,10 @@
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="27" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>307</v>
@@ -7732,9 +7753,9 @@
         <v>320</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="K23" s="105"/>
+        <v>466</v>
+      </c>
+      <c r="K23" s="103"/>
       <c r="L23" s="37"/>
       <c r="M23" s="84"/>
       <c r="N23" s="34"/>
@@ -7761,7 +7782,7 @@
         <v>259</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>321</v>
@@ -7784,10 +7805,10 @@
       <c r="J25" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="K25" s="104" t="s">
+      <c r="K25" s="102" t="s">
         <v>355</v>
       </c>
-      <c r="L25" s="102" t="s">
+      <c r="L25" s="112" t="s">
         <v>361</v>
       </c>
       <c r="M25" s="84"/>
@@ -7799,7 +7820,7 @@
         <v>268</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>324</v>
@@ -7822,8 +7843,8 @@
       <c r="J26" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="113"/>
       <c r="M26" s="84"/>
       <c r="N26" s="34"/>
     </row>
@@ -7849,7 +7870,7 @@
         <v>268</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>324</v>
@@ -7872,10 +7893,10 @@
       <c r="J28" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="K28" s="104" t="s">
+      <c r="K28" s="102" t="s">
         <v>356</v>
       </c>
-      <c r="L28" s="102" t="s">
+      <c r="L28" s="112" t="s">
         <v>362</v>
       </c>
       <c r="M28" s="84"/>
@@ -7884,7 +7905,7 @@
     <row r="29" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="27" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>282</v>
@@ -7910,8 +7931,8 @@
       <c r="J29" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="K29" s="105"/>
-      <c r="L29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="113"/>
       <c r="M29" s="84"/>
       <c r="N29" s="34"/>
     </row>
@@ -7934,7 +7955,7 @@
     <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="27" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>282</v>
@@ -7960,10 +7981,10 @@
       <c r="J31" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="K31" s="104" t="s">
-        <v>514</v>
-      </c>
-      <c r="L31" s="102" t="s">
+      <c r="K31" s="102" t="s">
+        <v>505</v>
+      </c>
+      <c r="L31" s="112" t="s">
         <v>363</v>
       </c>
       <c r="M31" s="84"/>
@@ -7972,7 +7993,7 @@
     <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="27" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>288</v>
@@ -7998,8 +8019,8 @@
       <c r="J32" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="K32" s="105"/>
-      <c r="L32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="113"/>
       <c r="M32" s="84"/>
       <c r="N32" s="34"/>
     </row>
@@ -8022,7 +8043,7 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="27" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>288</v>
@@ -8048,10 +8069,10 @@
       <c r="J34" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="K34" s="104" t="s">
-        <v>520</v>
-      </c>
-      <c r="L34" s="102" t="s">
+      <c r="K34" s="102" t="s">
+        <v>511</v>
+      </c>
+      <c r="L34" s="112" t="s">
         <v>364</v>
       </c>
       <c r="M34" s="84"/>
@@ -8063,7 +8084,7 @@
         <v>278</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>303</v>
@@ -8084,10 +8105,10 @@
         <v>333</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>472</v>
-      </c>
-      <c r="K35" s="105"/>
-      <c r="L35" s="103"/>
+        <v>467</v>
+      </c>
+      <c r="K35" s="103"/>
+      <c r="L35" s="113"/>
       <c r="M35" s="84"/>
       <c r="N35" s="34"/>
     </row>
@@ -8113,7 +8134,7 @@
         <v>278</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>303</v>
@@ -8134,7 +8155,7 @@
         <v>333</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K37" s="91" t="s">
         <v>25</v>
@@ -8148,7 +8169,7 @@
     <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="27" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>283</v>
@@ -8172,7 +8193,7 @@
         <v>335</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K38" s="92"/>
       <c r="L38" s="99"/>
@@ -8198,7 +8219,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="27" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>283</v>
@@ -8222,12 +8243,12 @@
         <v>335</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="K40" s="104" t="s">
+        <v>468</v>
+      </c>
+      <c r="K40" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="L40" s="102" t="s">
+      <c r="L40" s="112" t="s">
         <v>365</v>
       </c>
       <c r="M40" s="84"/>
@@ -8260,10 +8281,10 @@
         <v>338</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="K41" s="105"/>
-      <c r="L41" s="103"/>
+        <v>469</v>
+      </c>
+      <c r="K41" s="103"/>
+      <c r="L41" s="113"/>
       <c r="M41" s="84"/>
       <c r="N41" s="34"/>
     </row>
@@ -8310,12 +8331,12 @@
         <v>338</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="K43" s="104" t="s">
+        <v>469</v>
+      </c>
+      <c r="K43" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="L43" s="102" t="s">
+      <c r="L43" s="112" t="s">
         <v>366</v>
       </c>
       <c r="M43" s="84"/>
@@ -8324,10 +8345,10 @@
     <row r="44" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>316</v>
@@ -8348,10 +8369,10 @@
         <v>341</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="K44" s="105"/>
-      <c r="L44" s="103"/>
+        <v>470</v>
+      </c>
+      <c r="K44" s="103"/>
+      <c r="L44" s="113"/>
       <c r="M44" s="84"/>
       <c r="N44" s="34"/>
     </row>
@@ -8374,10 +8395,10 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>316</v>
@@ -8398,12 +8419,12 @@
         <v>341</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="K46" s="104" t="s">
+        <v>470</v>
+      </c>
+      <c r="K46" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="L46" s="102" t="s">
+      <c r="L46" s="112" t="s">
         <v>367</v>
       </c>
       <c r="M46" s="84"/>
@@ -8412,10 +8433,10 @@
     <row r="47" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>286</v>
@@ -8436,10 +8457,10 @@
         <v>344</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="K47" s="105"/>
-      <c r="L47" s="103"/>
+        <v>471</v>
+      </c>
+      <c r="K47" s="103"/>
+      <c r="L47" s="113"/>
       <c r="M47" s="84"/>
       <c r="N47" s="34"/>
     </row>
@@ -8462,10 +8483,10 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>286</v>
@@ -8486,12 +8507,12 @@
         <v>344</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="K49" s="104" t="s">
+        <v>471</v>
+      </c>
+      <c r="K49" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="L49" s="102" t="s">
+      <c r="L49" s="112" t="s">
         <v>368</v>
       </c>
       <c r="M49" s="84"/>
@@ -8500,10 +8521,10 @@
     <row r="50" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>292</v>
@@ -8524,10 +8545,10 @@
         <v>347</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="K50" s="105"/>
-      <c r="L50" s="103"/>
+        <v>472</v>
+      </c>
+      <c r="K50" s="103"/>
+      <c r="L50" s="113"/>
       <c r="M50" s="85"/>
       <c r="N50" s="34"/>
     </row>
@@ -8565,17 +8586,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K25:K26"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="M4:M50"/>
     <mergeCell ref="K46:K47"/>
@@ -8592,6 +8602,17 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K25:K26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8603,10 +8624,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M54" sqref="B1:M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8653,7 +8674,7 @@
       <c r="J1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="114" t="s">
         <v>369</v>
       </c>
       <c r="L1" s="34"/>
@@ -8689,7 +8710,7 @@
       <c r="J2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="117"/>
+      <c r="K2" s="115"/>
       <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8723,23 +8744,23 @@
       <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="118"/>
+      <c r="K3" s="116"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="27" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>372</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>373</v>
@@ -8756,21 +8777,21 @@
       <c r="J4" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="117" t="s">
         <v>348</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="27" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>377</v>
@@ -8793,7 +8814,7 @@
       <c r="J5" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="K5" s="120"/>
+      <c r="K5" s="118"/>
       <c r="L5" s="84"/>
       <c r="M5" s="34"/>
     </row>
@@ -8815,10 +8836,10 @@
     <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="27" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>377</v>
@@ -8841,8 +8862,8 @@
       <c r="J7" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="K7" s="102" t="s">
-        <v>438</v>
+      <c r="K7" s="112" t="s">
+        <v>433</v>
       </c>
       <c r="L7" s="84"/>
       <c r="M7" s="34"/>
@@ -8850,10 +8871,10 @@
     <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="27" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>382</v>
@@ -8876,7 +8897,7 @@
       <c r="J8" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="K8" s="103"/>
+      <c r="K8" s="113"/>
       <c r="L8" s="84"/>
       <c r="M8" s="34"/>
     </row>
@@ -8898,10 +8919,10 @@
     <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="27" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>382</v>
@@ -8924,8 +8945,8 @@
       <c r="J10" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="K10" s="102" t="s">
-        <v>439</v>
+      <c r="K10" s="112" t="s">
+        <v>434</v>
       </c>
       <c r="L10" s="84"/>
       <c r="M10" s="34"/>
@@ -8933,16 +8954,16 @@
     <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="27" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>387</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>388</v>
@@ -8959,7 +8980,7 @@
       <c r="J11" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="K11" s="103"/>
+      <c r="K11" s="113"/>
       <c r="L11" s="84"/>
       <c r="M11" s="34"/>
     </row>
@@ -8981,16 +9002,16 @@
     <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="27" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>387</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>388</v>
@@ -9007,8 +9028,8 @@
       <c r="J13" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="K13" s="102" t="s">
-        <v>440</v>
+      <c r="K13" s="112" t="s">
+        <v>435</v>
       </c>
       <c r="L13" s="84"/>
       <c r="M13" s="34"/>
@@ -9016,10 +9037,10 @@
     <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="27" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>392</v>
@@ -9042,7 +9063,7 @@
       <c r="J14" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="K14" s="103"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="84"/>
       <c r="M14" s="34"/>
     </row>
@@ -9064,10 +9085,10 @@
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="27" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>392</v>
@@ -9099,10 +9120,10 @@
     <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="27" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>396</v>
@@ -9123,7 +9144,7 @@
         <v>398</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="K17" s="99"/>
       <c r="L17" s="84"/>
@@ -9147,10 +9168,10 @@
     <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="27" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>396</v>
@@ -9171,10 +9192,10 @@
         <v>398</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="K19" s="102" t="s">
-        <v>441</v>
+        <v>498</v>
+      </c>
+      <c r="K19" s="112" t="s">
+        <v>436</v>
       </c>
       <c r="L19" s="84"/>
       <c r="M19" s="34"/>
@@ -9182,10 +9203,10 @@
     <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="27" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>399</v>
@@ -9208,7 +9229,7 @@
       <c r="J20" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="K20" s="103"/>
+      <c r="K20" s="113"/>
       <c r="L20" s="84"/>
       <c r="M20" s="34"/>
     </row>
@@ -9230,10 +9251,10 @@
     <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="27" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>399</v>
@@ -9256,8 +9277,8 @@
       <c r="J22" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="K22" s="102" t="s">
-        <v>442</v>
+      <c r="K22" s="112" t="s">
+        <v>437</v>
       </c>
       <c r="L22" s="84"/>
       <c r="M22" s="34"/>
@@ -9265,10 +9286,10 @@
     <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="27" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>403</v>
@@ -9291,7 +9312,7 @@
       <c r="J23" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="K23" s="103"/>
+      <c r="K23" s="113"/>
       <c r="L23" s="84"/>
       <c r="M23" s="34"/>
     </row>
@@ -9313,10 +9334,10 @@
     <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="27" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>403</v>
@@ -9339,8 +9360,8 @@
       <c r="J25" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="K25" s="102" t="s">
-        <v>443</v>
+      <c r="K25" s="112" t="s">
+        <v>438</v>
       </c>
       <c r="L25" s="84"/>
       <c r="M25" s="34"/>
@@ -9348,10 +9369,10 @@
     <row r="26" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="27" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>407</v>
@@ -9374,7 +9395,7 @@
       <c r="J26" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="K26" s="103"/>
+      <c r="K26" s="113"/>
       <c r="L26" s="85"/>
       <c r="M26" s="34"/>
     </row>
@@ -9396,10 +9417,10 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="27" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>410</v>
@@ -9420,29 +9441,29 @@
         <v>412</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="K28" s="114" t="s">
-        <v>516</v>
+        <v>499</v>
+      </c>
+      <c r="K28" s="119" t="s">
+        <v>507</v>
       </c>
       <c r="L28" s="83" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="27" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>415</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F29" s="27" t="s">
         <v>416</v>
@@ -9457,9 +9478,9 @@
         <v>419</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="K29" s="115"/>
+        <v>500</v>
+      </c>
+      <c r="K29" s="120"/>
       <c r="L29" s="84"/>
       <c r="M29" s="34"/>
     </row>
@@ -9481,16 +9502,16 @@
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="27" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>415</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F31" s="27" t="s">
         <v>416</v>
@@ -9505,10 +9526,10 @@
         <v>419</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="K31" s="114" t="s">
-        <v>517</v>
+        <v>500</v>
+      </c>
+      <c r="K31" s="119" t="s">
+        <v>508</v>
       </c>
       <c r="L31" s="84"/>
       <c r="M31" s="34"/>
@@ -9516,16 +9537,16 @@
     <row r="32" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="27" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>393</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F32" s="27" t="s">
         <v>380</v>
@@ -9540,9 +9561,9 @@
         <v>422</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="K32" s="115"/>
+        <v>431</v>
+      </c>
+      <c r="K32" s="120"/>
       <c r="L32" s="84"/>
       <c r="M32" s="34"/>
     </row>
@@ -9564,16 +9585,16 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="27" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>393</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F34" s="27" t="s">
         <v>380</v>
@@ -9588,9 +9609,9 @@
         <v>422</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="K34" s="114" t="s">
+        <v>431</v>
+      </c>
+      <c r="K34" s="119" t="s">
         <v>146</v>
       </c>
       <c r="L34" s="84"/>
@@ -9599,10 +9620,10 @@
     <row r="35" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="27" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>379</v>
@@ -9623,9 +9644,9 @@
         <v>424</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="K35" s="115"/>
+        <v>501</v>
+      </c>
+      <c r="K35" s="120"/>
       <c r="L35" s="84"/>
       <c r="M35" s="34"/>
     </row>
@@ -9647,10 +9668,10 @@
     <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="27" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>379</v>
@@ -9671,7 +9692,7 @@
         <v>424</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K37" s="98" t="s">
         <v>25</v>
@@ -9682,7 +9703,7 @@
     <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="27" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>372</v>
@@ -9706,7 +9727,7 @@
         <v>426</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K38" s="99"/>
       <c r="L38" s="84"/>
@@ -9730,7 +9751,7 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="27" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>372</v>
@@ -9754,10 +9775,10 @@
         <v>426</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="K40" s="114" t="s">
-        <v>444</v>
+        <v>502</v>
+      </c>
+      <c r="K40" s="119" t="s">
+        <v>439</v>
       </c>
       <c r="L40" s="84"/>
       <c r="M40" s="34"/>
@@ -9765,7 +9786,7 @@
     <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="27" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>382</v>
@@ -9789,9 +9810,9 @@
         <v>429</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="K41" s="115"/>
+        <v>503</v>
+      </c>
+      <c r="K41" s="120"/>
       <c r="L41" s="84"/>
       <c r="M41" s="34"/>
     </row>
@@ -9813,7 +9834,7 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>382</v>
@@ -9837,10 +9858,10 @@
         <v>429</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="K43" s="114" t="s">
-        <v>353</v>
+        <v>503</v>
+      </c>
+      <c r="K43" s="119" t="s">
+        <v>512</v>
       </c>
       <c r="L43" s="84"/>
       <c r="M43" s="34"/>
@@ -9848,33 +9869,33 @@
     <row r="44" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>387</v>
+        <v>514</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="K44" s="115"/>
+        <v>513</v>
+      </c>
+      <c r="K44" s="120"/>
       <c r="L44" s="84"/>
       <c r="M44" s="34"/>
     </row>
@@ -9896,34 +9917,34 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>387</v>
+        <v>514</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="K46" s="114" t="s">
-        <v>445</v>
+        <v>513</v>
+      </c>
+      <c r="K46" s="119" t="s">
+        <v>353</v>
       </c>
       <c r="L46" s="84"/>
       <c r="M46" s="34"/>
@@ -9931,33 +9952,33 @@
     <row r="47" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>392</v>
+        <v>519</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>395</v>
+        <v>518</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="K47" s="115"/>
+        <v>517</v>
+      </c>
+      <c r="K47" s="120"/>
       <c r="L47" s="84"/>
       <c r="M47" s="34"/>
     </row>
@@ -9972,41 +9993,41 @@
       <c r="H48" s="27"/>
       <c r="I48" s="26"/>
       <c r="J48" s="27"/>
-      <c r="K48" s="37"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="84"/>
       <c r="M48" s="34"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>392</v>
+        <v>519</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>395</v>
+        <v>518</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="K49" s="100" t="s">
-        <v>446</v>
+        <v>517</v>
+      </c>
+      <c r="K49" s="119" t="s">
+        <v>440</v>
       </c>
       <c r="L49" s="84"/>
       <c r="M49" s="34"/>
@@ -10014,79 +10035,157 @@
     <row r="50" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>403</v>
+        <v>522</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>395</v>
+        <v>523</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>406</v>
+        <v>524</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>436</v>
+        <v>525</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>437</v>
+        <v>526</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="K50" s="101"/>
-      <c r="L50" s="85"/>
+        <v>527</v>
+      </c>
+      <c r="K50" s="120"/>
+      <c r="L50" s="84"/>
       <c r="M50" s="34"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="84"/>
       <c r="M51" s="34"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
+      <c r="B52" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="K52" s="100" t="s">
+        <v>441</v>
+      </c>
+      <c r="L52" s="84"/>
       <c r="M52" s="34"/>
     </row>
+    <row r="53" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="K53" s="101"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="34"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L28:L50"/>
+  <mergeCells count="20">
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L28:L53"/>
     <mergeCell ref="L4:L26"/>
     <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K43:K44"/>
     <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K49:K50"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="K37:K38"/>
@@ -10095,8 +10194,14 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>